--- a/Scrappers/Huawei/Downloads/amazon.xlsx
+++ b/Scrappers/Huawei/Downloads/amazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:J174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Parcela</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
@@ -483,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartband-Huawei-Monitoramentos-diversos-Portugu%C3%AAs/dp/B07VL8NWYZ/ref=sr_1_6?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
+          <t>https://www.amazon.com.br/Smartband-Huawei-Monitoramentos-diversos-Portugu%C3%AAs/dp/B07VJMPS8H/ref=sr_1_15?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,35 +506,40 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>B07VL8NWYZ</t>
+          <t>B07VJMPS8H</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartband Huawei Honor Band 5, Tela 0,95" Amoled, 5ATM à Prova D'Água, Monitoramentos diversos Versão Global em Português (Preto)
+Smartband Huawei Honor Band 5, Tela 0,95" Amoled, 5ATM à Prova D'Água, Monitoramentos diversos Versão Global em Português (Azul)
 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,16 </t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t xml:space="preserve"> 30,14 </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartband-Huawei-Monitoramento-Diversos-Vermelho/dp/B0817BD8F6/ref=sr_1_19?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Honor-Meteorite-Black-Sport/dp/B085T6K473/ref=sr_1_13?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alfa Tecnológico</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -542,35 +552,40 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B0817BD8F6</t>
+          <t>B085T6K473</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Vermelho)
+Huawei Honor Band 5i (Meteorite Black Sport Band)
 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,99 </t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t xml:space="preserve"> 31,34 </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-FIT-PRETO/dp/B08G58CGT9/ref=sr_1_3?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Smartwatch-polegadas-monitoramento-frequ%C3%AAncia/dp/B0859W69JR/ref=sr_1_5?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -583,35 +598,40 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B08G58CGT9</t>
+          <t>B0859W69JR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH FIT PRETO
+HUAWEI Smartwatch Band 6 Fitness Tracker para homens e mulheres, tela colorida AMOLED de 1,47 polegadas, monitoramento de frequência cardíaca e spo2 durante todo o dia, bateria de 2 semanas, à prova d'água, versão global, laranja
 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53,56 </t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t xml:space="preserve"> 78,20 </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-ROSA/dp/B0923KH2NG/ref=sr_1_2?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartband-Colorida-Bluetooth-Monitoramento-diversos/dp/B07XTQWHJL/ref=sr_1_18?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SIKAICASE-Global</t>
+          <t>ZOOMStore</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -624,35 +644,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B0923KH2NG</t>
+          <t>B07XTQWHJL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART BAND 6 ROSA
+Smartband Huawei Band 4, Tela 0,96" Colorida, Bluetooth, 5ATM à prova d'água, Monitoramento diversos (Laranja)
 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35,80 </t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t xml:space="preserve"> 32,80 </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Huawei-Band-4E-AW70/dp/B082JH9LPP/ref=sr_1_22?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F413YZD/ref=sr_1_12?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tuti Fruti Store</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -665,35 +690,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B082JH9LPP</t>
+          <t>B08F413YZD</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Huawei Band 4E AW70 - Misty Grey
+Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Preto)
 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,03 </t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t xml:space="preserve"> 53,55 </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Pulseira-Inteligente-Huawei-Color-Bluetooth/dp/B01MUDZK7I/ref=sr_1_23?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-PRETO/dp/B0923DSVJJ/ref=sr_1_1?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arco Íris S.A.</t>
+          <t>Alfa Tecnológico</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -706,35 +736,40 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B01MUDZK7I</t>
+          <t>B0923DSVJJ</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pulseira Inteligente Huawei Color Band A1 AW600 Bluetooth - Verde
+HUAWEI SMART BAND 6 PRETO
 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,56 </t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t xml:space="preserve"> 33,16 </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartband-Colorida-Bluetooth-Monitoramento-diversos/dp/B07XTQR8TS/ref=sr_1_21?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-46MM-PRETO/dp/B07YGJYGH7/ref=sr_1_11?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -747,35 +782,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>B07XTQR8TS</t>
+          <t>B07YGJYGH7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartband Huawei Band 4, Tela 0,96" Colorida, Bluetooth, 5ATM à prova d'água, Monitoramento diversos (Rosa)
+HUAWEI SMART WATCH GT2 46MM PRETO
 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,10 </t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t xml:space="preserve"> 82,69 </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartband-Huawei-Amoled-Monitoramento-Diversos/dp/B08179V446/ref=sr_1_12?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Band-Pro-inteligente-profissional/dp/B0874QXMPX/ref=sr_1_21?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alfa Tecnológico</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -788,30 +828,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>B08179V446</t>
+          <t>B0874QXMPX</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Preto)
+Huawei Band 4 Pro – rastreador de atividades inteligente com tela sensível ao toque AMOLED de 0,95 polegadas, monitor de frequência cardíaca 24 horas, monitor profissional externo interno, monitor de sono, GPS integrado, 5 ATM à prova d'água
 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36,92 </t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t xml:space="preserve"> 49,94 </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartband-Huawei-Amoled-Monitoramento-Diversos/dp/B081788H9P/ref=sr_1_8?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Pulseira-Huawei-Band-4-Pink/dp/B07ZX5RLHR/ref=sr_1_7?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -829,30 +874,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>B081788H9P</t>
+          <t>B07ZX5RLHR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Rosa)
+Pulseira Huawei Band 4 Pink
 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53,90 </t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t xml:space="preserve"> 32,74 </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Honor-Meteorite-Black-Sport/dp/B085T6K473/ref=sr_1_17?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
+          <t>https://www.amazon.com.br/inteligente-polegadas-atividade-frequ%C3%AAncia-satura%C3%A7%C3%A3o/dp/B082JGV1TJ/ref=sr_1_8?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -870,35 +920,40 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>B085T6K473</t>
+          <t>B082JGV1TJ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Honor Band 5i (Meteorite Black Sport Band)
+Pulseira inteligente Huawei Band 4 de 0,95 polegadas, monitor de atividade de fitness, monitor de frequência cardíaca, detecção de saturação de oxigênio no sangue, GPS integrado, 5 ATM à prova d 'água de longa duração
 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,34 </t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t xml:space="preserve"> 32,74 </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F413YZD/ref=sr_1_9?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smart-Band-Huawei-Honor-Vers%C3%A3o/dp/B07X9DGLWZ/ref=sr_1_14?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -911,35 +966,40 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>B08F413YZD</t>
+          <t>B07X9DGLWZ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Preto)
+Smart Band Huawei Honor 5 - Versão Global
 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53,56 </t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t xml:space="preserve"> 31,18 </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412LGH/ref=sr_1_4?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Rel%C3%B3gio-Huawei-Band-4E-AW70/dp/B082JH9LPP/ref=sr_1_9?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Tuti Fruti Store</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -952,35 +1012,40 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>B08F412LGH</t>
+          <t>B082JH9LPP</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Rosa)
+Relógio Huawei Band 4E AW70 - Misty Grey
 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66,90 </t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t xml:space="preserve"> 30,03 </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smart-Band-Huawei-Honor-Vers%C3%A3o/dp/B07X9DGLWZ/ref=sr_1_14?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
+          <t>https://www.amazon.com.br/Huawei-Honor-Band-Vers%C3%A3o-Global/dp/B08455PZFR/ref=sr_1_20?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>KADU ELETRO</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -993,35 +1058,40 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B07X9DGLWZ</t>
+          <t>B08455PZFR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smart Band Huawei Honor 5 - Versão Global
+Huawei Honor Band 5i Rosa (Versão Global)
 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,18 </t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t xml:space="preserve"> 33,20 </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-46MM-PRETO/dp/B07YGJYGH7/ref=sr_1_11?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-ROSA/dp/B0923KH2NG/ref=sr_1_2?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>SIKAICASE-Global</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1034,35 +1104,40 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>B07YGJYGH7</t>
+          <t>B0923KH2NG</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH GT2 46MM PRETO
+HUAWEI SMART BAND 6 ROSA
 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82,71 </t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t xml:space="preserve"> 35,66 </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/REL%C3%93GIO-SMARTWATCH-HUAWEI-WATCH-FIT/dp/B08G5953BG/ref=sr_1_10?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-4-PRETO/dp/B081XRLRZ5/ref=sr_1_16?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>JOHNNY BRAVO IMPORTS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1075,30 +1150,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>B08G5953BG</t>
+          <t>B081XRLRZ5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH FIT ROSA
+HUAWEI SMART BAND 4 PRETO
 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66,84 </t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t xml:space="preserve"> 30,84 </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Relogio-Inteligente-Huawei-Honor-Band/dp/B07KFGPV21/ref=sr_1_13?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
+          <t>https://www.amazon.com.br/Smartband-Huawei-Pulseira-Inteligente-Pmoled/dp/B07NDSBMN9/ref=sr_1_23?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.6a09f7ec-d911-4889-ad70-de8dd83c8a74</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1116,35 +1196,40 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>B07KFGPV21</t>
+          <t>B07NDSBMN9</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Smartwatch Honor Band 4
+Smartband Huawei Band 3e Pulseira Inteligente Pmoled Tela Bt 4.2
 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,58 </t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t xml:space="preserve"> 32,35 </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-4-PRETO/dp/B081XRLRZ5/ref=sr_1_15?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+          <t>https://www.amazon.com.br/Smartband-Huawei-Amoled-Monitoramento-Diversos/dp/B08179V446/ref=sr_1_19?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JOHNNY BRAVO IMPORTS</t>
+          <t>Alfa Tecnológico</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1157,30 +1242,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>B081XRLRZ5</t>
+          <t>B08179V446</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART BAND 4 PRETO
+Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Preto)
 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,84 </t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t xml:space="preserve"> 36,92 </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Band-Pro-inteligente-profissional/dp/B0874QXMPX/ref=sr_1_18?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Smartwatch-Band-monitoramento-frequ%C3%AAncia/dp/B0923GP3G8/ref=sr_1_3?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1198,30 +1288,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B0874QXMPX</t>
+          <t>B0923GP3G8</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Band 4 Pro – rastreador de atividades inteligente com tela sensível ao toque AMOLED de 0,95 polegadas, monitor de frequência cardíaca 24 horas, monitor profissional externo interno, monitor de sono, GPS integrado, 5 ATM à prova d'água
+HUAWEI Smartwatch Band 6 Fitness Tracker para homens e mulheres, tela colorida AMOLED de 1,47 polegadas, monitoramento de frequência cardíaca e spo2 durante todo o dia, bateria de 2 semanas, à prova d'água, versão global, laranja
 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49,94 </t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t xml:space="preserve"> 39,92 </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Smartwatch-polegadas-monitoramento-frequ%C3%AAncia/dp/B0859W69JR/ref=sr_1_5?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartband-Colorida-Bluetooth-Monitoramento-diversos/dp/B07XTQR8TS/ref=sr_1_10?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1239,35 +1334,40 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>B0859W69JR</t>
+          <t>B07XTQR8TS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI Smartwatch Band 6 Fitness Tracker para homens e mulheres, tela colorida AMOLED de 1,47 polegadas, monitoramento de frequência cardíaca e spo2 durante todo o dia, bateria de 2 semanas, à prova d'água, versão global, laranja
+Smartband Huawei Band 4, Tela 0,96" Colorida, Bluetooth, 5ATM à prova d'água, Monitoramento diversos (Rosa)
 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 78,20 </t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t xml:space="preserve"> 33,10 </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Honor-Band-5-Blue/dp/B07VRMLYLJ/ref=sr_1_24?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6</t>
+          <t>https://www.amazon.com.br/Huawei-Honor-Preto-Vers%C3%A3o-Global/dp/B07ZXD9MDZ/ref=sr_1_24?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Eletro Mania ✔️</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1280,35 +1380,40 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>B07VRMLYLJ</t>
+          <t>B07ZXD9MDZ</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Honor Band 5 Blue
+Huawei Honor Band 5i Preto (Versão Global)
 </t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,15 </t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+          <t xml:space="preserve"> 33,66 </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>8</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Smartwatch-Band-monitoramento-frequ%C3%AAncia/dp/B0923GP3G8/ref=sr_1_7?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-FIT-PRETO/dp/B08G58CGT9/ref=sr_1_4?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1321,35 +1426,40 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>B0923GP3G8</t>
+          <t>B08G58CGT9</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI Smartwatch Band 6 Fitness Tracker para homens e mulheres, tela colorida AMOLED de 1,47 polegadas, monitoramento de frequência cardíaca e spo2 durante todo o dia, bateria de 2 semanas, à prova d'água, versão global, laranja
+HUAWEI SMART WATCH FIT PRETO
 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,89 </t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t xml:space="preserve"> 53,56 </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Honor-Band-Vers%C3%A3o-Global/dp/B08455PZFR/ref=sr_1_20?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6</t>
+          <t>https://www.amazon.com.br/Smartband-Huawei-Amoled-Monitoramento-Diversos/dp/B081788H9P/ref=sr_1_22?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>First! Warehouse</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1362,35 +1472,40 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>B08455PZFR</t>
+          <t>B081788H9P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Honor Band 5i Rosa (Versão Global)
+Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Rosa)
 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,00 </t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t xml:space="preserve"> 53,90 </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartband-Huawei-Monitoramentos-diversos-Portugu%C3%AAs/dp/B07VJMPS8H/ref=sr_1_16?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6</t>
+          <t>https://www.amazon.com.br/Smartband-Huawei-Monitoramentos-diversos-Portugu%C3%AAs/dp/B07VL8NWYZ/ref=sr_1_6?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>-Tech- Pronta Entrega Brasil</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1403,30 +1518,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>B07VJMPS8H</t>
+          <t>B07VL8NWYZ</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartband Huawei Honor Band 5, Tela 0,95" Amoled, 5ATM à Prova D'Água, Monitoramentos diversos Versão Global em Português (Azul)
+Smartband Huawei Honor Band 5, Tela 0,95" Amoled, 5ATM à Prova D'Água, Monitoramentos diversos Versão Global em Português (Preto)
 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,14 </t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t xml:space="preserve"> 35,00 </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-PRETO/dp/B0923DSVJJ/ref=sr_1_1?keywords=huawei+band+6&amp;qid=1636497040&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/Relogio-Inteligente-Huawei-Honor-Band/dp/B07KFGPV21/ref=sr_1_17?keywords=huawei+band+6&amp;qid=1636678650&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1444,35 +1564,40 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>B0923DSVJJ</t>
+          <t>B07KFGPV21</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART BAND 6 PRETO
+Huawei Smartwatch Honor Band 4
 </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,15 </t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t xml:space="preserve"> 33,58 </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-PRETO/dp/B0923DSVJJ/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-454x454-Castanho/dp/B07YP3WGML/ref=sr_1_22?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,30 +1610,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>B0923DSVJJ</t>
+          <t>B07YP3WGML</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART BAND 6 PRETO
+Smartwatch Huawei GT 2 46MM 2019, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD, Castanho
 </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,15 </t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t xml:space="preserve"> 100,04 </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/REL%C3%93GIO-SMARTWATCH-HUAWEI-WATCH-FIT/dp/B08G5953BG/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/REL%C3%93GIO-SMARTWATCH-HUAWEI-WATCH-FIT/dp/B08G5953BG/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1538,23 +1668,28 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66,84 </t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t xml:space="preserve"> 69,84 </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Watch-DAN-B19-Black-42mm/dp/B07XL3RHQK/ref=sr_1_21?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-GT2-42mm-Dianna/dp/B082JH1SZY/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>ZOOMStore</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1567,35 +1702,40 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>B07XL3RHQK</t>
+          <t>B082JH1SZY</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Watch GT 2 DAN-B19 (Black, 42mm)
+Smartwatch Huawei GT2, 42mm, Dianna - Preto
 </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 164,15 </t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t xml:space="preserve"> 94,90 </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-bateria-frequ%C3%AAncia-card%C3%ADaca-oxig%C3%AAnio/dp/B08JTQ99NC/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-Amoled-454x454/dp/B083BQYKP7/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1608,35 +1748,40 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>B08JTQ99NC</t>
+          <t>B083BQYKP7</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH GT2 PRO 46MM
+Smartwatch Huawei GT 2 46MM 2019, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD (Preto)
 </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 135,02 </t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t xml:space="preserve"> 89,97 </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Completo-Lan%C3%A7amento-Peliculas-Protetoras/dp/B07MV1ZRDG/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Watch-Huawei-HCT-B19/dp/B085GGLLR1/ref=sr_1_19?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>L_eletronicos</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1649,35 +1794,40 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>B07MV1ZRDG</t>
+          <t>B085GGLLR1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Huawei Gt Classic Smartwatch Gps Completo Lançamento
+Relógio Smartwatch Watch GT2E Huawei HCT-B19 Preto
 </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 111,38 </t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t xml:space="preserve"> 79,10 </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412LGH/ref=sr_1_20?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-42mm-Branco/dp/B0875LVYJY/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Fast Shop Loja oficial</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1690,35 +1840,40 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>B08F412LGH</t>
+          <t>B0875LVYJY</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Rosa)
+Smartwatch Huawei Watch GT 42mm, Ella, Branco
 </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66,90 </t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t xml:space="preserve"> 73,75 </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>10</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-46MM-PRETO/dp/B07YGJYGH7/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Completo-Lan%C3%A7amento-Peliculas-Protetoras/dp/B07MV1ZRDG/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1731,35 +1886,40 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>B07YGJYGH7</t>
+          <t>B07MV1ZRDG</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH GT2 46MM PRETO
+Relógio Huawei Gt Classic Smartwatch Gps Completo Lançamento
 </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82,71 </t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t xml:space="preserve"> 111,38 </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smart-Band-Huawei-Honor-Vers%C3%A3o/dp/B07X9DGLWZ/ref=sr_1_23?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-PRETO/dp/B0923DSVJJ/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Alfa Tecnológico</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1772,35 +1932,40 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>B07X9DGLWZ</t>
+          <t>B0923DSVJJ</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smart Band Huawei Honor 5 - Versão Global
+HUAWEI SMART BAND 6 PRETO
 </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,18 </t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t xml:space="preserve"> 33,16 </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Watch-Rel%C3%B3gio-Smartwatch-Marrom/dp/B09DGNLR74/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-FIT-PRETO/dp/B08G58CGT9/ref=sr_1_13?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EBOXY</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1813,35 +1978,40 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>B09DGNLR74</t>
+          <t>B08G58CGT9</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Watch 3 Pro Relógio Smartwatch Tela 1.43 pol. Marrom
+HUAWEI SMART WATCH FIT PRETO
 </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 423,07 </t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t xml:space="preserve"> 53,56 </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-bateria-frequ%C3%AAncia-card%C3%ADaca-oxig%C3%AAnio/dp/B08JTDQTYT/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-46MM-PRETO/dp/B07YGJYGH7/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JACSHOP</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1854,30 +2024,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>B08JTDQTYT</t>
+          <t>B07YGJYGH7</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT 2 Pro, com 14 dias de vida útil da bateria, monitor de frequência cardíaca à prova d'água, monitor de oxigênio no sangue, Android e Ios, Versão Global (Marrom)
+HUAWEI SMART WATCH GT2 46MM PRETO
 </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 146,43 </t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t xml:space="preserve"> 82,71 </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Watch-GT-2e-Sport/dp/B085VMN6FH/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412LGH/ref=sr_1_20?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1895,35 +2070,40 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>B085VMN6FH</t>
+          <t>B08F412LGH</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI Watch GT 2e Bluetooth SmartWatch, Sport GPS 14 Dias de Trabalho Rastreador de Fitness, Rastreador de Freqüência Cardíaca, Monitor de Oxigênio no Sangue, À Prova D 'Água para Android e iOS, 46mm Vermelho
+Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Rosa)
 </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 109,90 </t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t xml:space="preserve"> 66,90 </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Watch-GT-Sport-46mm/dp/B07XH9KHLR/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F413YZD/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1936,35 +2116,40 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>B07XH9KHLR</t>
+          <t>B08F413YZD</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Watch GT 2 Sport 46mm
+Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Preto)
 </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94,63 </t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t xml:space="preserve"> 52,97 </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>10</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-FIT-PRETO/dp/B08G58CGT9/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412XPQ/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1977,35 +2162,40 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>B08G58CGT9</t>
+          <t>B08F412XPQ</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH FIT PRETO
+Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Verde)
 </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53,56 </t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t xml:space="preserve"> 67,08 </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>10</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412XPQ/ref=sr_1_19?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-Active-Tela/dp/B09DGPHKTG/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>JACSHOP</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2018,35 +2208,40 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>B08F412XPQ</t>
+          <t>B09DGPHKTG</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Verde)
+Smartwatch Huawei Watch 3 Active Edition Tela 1.43 pol.
 </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 67,08 </t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t xml:space="preserve"> 336,04 </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>10</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-42mm-Branco/dp/B0875LVYJY/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-GT2-46MM/dp/B08JTQ99NC/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fast Shop Loja oficial</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2059,35 +2254,40 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>B0875LVYJY</t>
+          <t>B08JTQ99NC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei Watch GT 42mm, Ella, Branco
+HUAWEI SMART WATCH GT2 PRO 46MM
 </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 73,75 </t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t xml:space="preserve"> 133,66 </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F413YZD/ref=sr_1_13?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Trabalhando-Rastreador-Freq%C3%BC%C3%AAncia-Imperme%C3%A1vel/dp/B07YP3PWNF/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2100,35 +2300,40 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>B08F413YZD</t>
+          <t>B07YP3PWNF</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Preto)
+HUAWEI Relógio Gt 2 2019 Bluetooth Smart Watch, Esporte GPS 14 Dias Trabalhando Fitness Tracker, Monitor De Oxigênio No Sangue Rastreador De Freqüência Cardíaca Impermeável Para Android E Ios ,
 </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53,56 </t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t xml:space="preserve"> 89,94 </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-GT2-42mm-Dianna/dp/B082JH1SZY/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-Leather-Marrom/dp/B07NF1ZFJX/ref=sr_1_23?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ZOOMStore</t>
+          <t>CAICHA BAZAR</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2141,35 +2346,40 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>B082JH1SZY</t>
+          <t>B07NF1ZFJX</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT2, 42mm, Dianna - Preto
+Relógio Smartwatch Huawei GT Leather GPS, Marrom
 </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94,90 </t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t xml:space="preserve"> 74,70 </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Watch-Huawei-HCT-B19/dp/B085GGLLR1/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartband-Huawei-Monitoramento-Diversos-Vermelho/dp/B0817BD8F6/ref=sr_1_24?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>KJG ELETRONICOS</t>
+          <t>Alfa Tecnológico</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2182,35 +2392,40 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>B085GGLLR1</t>
+          <t>B0817BD8F6</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Smartwatch Watch GT2E Huawei HCT-B19 Preto
+Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Vermelho)
 </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79,90 </t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t xml:space="preserve"> 42,99 </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Watch-GT-Inteligente/dp/B085VTLD43/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-bateria-frequ%C3%AAncia-card%C3%ADaca-oxig%C3%AAnio/dp/B08JTDQTYT/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>JACSHOP</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2223,35 +2438,40 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>B085VTLD43</t>
+          <t>B08JTDQTYT</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch HUAWEI Watch GT 2e, Relógio Inteligente Bluetooth, 46 mm, Sport GPS 14 dias de trabalho Fitness Tracker, Heart Rate Tracker, Monitor de oxigênio no sangue, à prova d'água para Android e iOS (Verde)
+Smartwatch Huawei GT 2 Pro, com 14 dias de vida útil da bateria, monitor de frequência cardíaca à prova d'água, monitor de oxigênio no sangue, Android e Ios, Versão Global (Marrom)
 </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 121,40 </t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t xml:space="preserve"> 146,43 </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>10</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Trabalhando-Rastreador-Freq%C3%BC%C3%AAncia-Imperme%C3%A1vel/dp/B07YP3PWNF/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Watch-Rel%C3%B3gio-Smartwatch-Marrom/dp/B09DGNLR74/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>EBOXY</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2264,30 +2484,35 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>B07YP3PWNF</t>
+          <t>B09DGNLR74</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI Relógio Gt 2 2019 Bluetooth Smart Watch, Esporte GPS 14 Dias Trabalhando Fitness Tracker, Monitor De Oxigênio No Sangue Rastreador De Freqüência Cardíaca Impermeável Para Android E Ios ,
+Huawei Watch 3 Pro Relógio Smartwatch Tela 1.43 pol. Marrom
 </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92,66 </t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t xml:space="preserve"> 603,90 </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>10</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-Amoled-454x454/dp/B083BQYKP7/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Watch-GT-Sport-46mm/dp/B07XH9KHLR/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2305,35 +2530,40 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>B083BQYKP7</t>
+          <t>B07XH9KHLR</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT 2 46MM 2019, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD (Preto)
+Huawei Watch GT 2 Sport 46mm
 </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92,01 </t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t xml:space="preserve"> 94,63 </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-Leather-Marrom/dp/B07NF1ZFJX/ref=sr_1_24?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Watch-DAN-B19-Black-42mm/dp/B07XL3RHQK/ref=sr_1_21?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Magazine wla</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2346,35 +2576,40 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>B07NF1ZFJX</t>
+          <t>B07XL3RHQK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Smartwatch Huawei GT Leather GPS, Marrom
+Huawei Watch GT 2 DAN-B19 (Black, 42mm)
 </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 75,08 </t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t xml:space="preserve"> 164,15 </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-Active-Tela/dp/B09DGPHKTG/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Watch-GT-Inteligente/dp/B085VTLD43/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>JACSHOP</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2387,35 +2622,40 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>B09DGPHKTG</t>
+          <t>B085VTLD43</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei Watch 3 Active Edition Tela 1.43 pol.
+Smartwatch HUAWEI Watch GT 2e, Relógio Inteligente Bluetooth, 46 mm, Sport GPS 14 dias de trabalho Fitness Tracker, Heart Rate Tracker, Monitor de oxigênio no sangue, à prova d'água para Android e iOS (Verde)
 </t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 350,00 </t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t xml:space="preserve"> 121,40 </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-454x454-Castanho/dp/B07YP3WGML/ref=sr_1_22?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636497049&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Watch-GT-2e-Sport/dp/B085VMN6FH/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+gt2+sport&amp;qid=1636678665&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2428,35 +2668,40 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>B07YP3WGML</t>
+          <t>B085VMN6FH</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT 2 46MM 2019, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD, Castanho
+HUAWEI Watch GT 2e Bluetooth SmartWatch, Sport GPS 14 Dias de Trabalho Rastreador de Fitness, Rastreador de Freqüência Cardíaca, Monitor de Oxigênio no Sangue, À Prova D 'Água para Android e iOS, 46mm Vermelho
 </t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100,07 </t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t xml:space="preserve"> 109,90 </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-bateria-frequ%C3%AAncia-card%C3%ADaca-oxig%C3%AAnio/dp/B08JTDQTYT/ref=sr_1_21?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-46MM-PRETO/dp/B07YGJYGH7/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>JACSHOP</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2469,30 +2714,35 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>B08JTDQTYT</t>
+          <t>B07YGJYGH7</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT 2 Pro, com 14 dias de vida útil da bateria, monitor de frequência cardíaca à prova d'água, monitor de oxigênio no sangue, Android e Ios, Versão Global (Marrom)
+HUAWEI SMART WATCH GT2 46MM PRETO
 </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 146,43 </t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t xml:space="preserve"> 82,71 </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Watch-GT-2e-Sport/dp/B085VMN6FH/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412XPQ/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2510,35 +2760,40 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>B085VMN6FH</t>
+          <t>B08F412XPQ</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI Watch GT 2e Bluetooth SmartWatch, Sport GPS 14 Dias de Trabalho Rastreador de Fitness, Rastreador de Freqüência Cardíaca, Monitor de Oxigênio no Sangue, À Prova D 'Água para Android e iOS, 46mm Vermelho
+Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Verde)
 </t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 109,90 </t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>10</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t xml:space="preserve"> 67,08 </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>10</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-Leather-Marrom/dp/B07NF1ZFJX/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Trabalhando-Rastreador-Freq%C3%BC%C3%AAncia-Imperme%C3%A1vel/dp/B07YP3PWNF/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Magazine wla</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2551,35 +2806,40 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>B07NF1ZFJX</t>
+          <t>B07YP3PWNF</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Smartwatch Huawei GT Leather GPS, Marrom
+HUAWEI Relógio Gt 2 2019 Bluetooth Smart Watch, Esporte GPS 14 Dias Trabalhando Fitness Tracker, Monitor De Oxigênio No Sangue Rastreador De Freqüência Cardíaca Impermeável Para Android E Ios ,
 </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 75,08 </t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t xml:space="preserve"> 89,94 </t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Watch-Huawei-HCT-B19/dp/B085GGLLR1/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Watch-FIT-Preto/dp/B08HYMDTTC/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KJG ELETRONICOS</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2592,35 +2852,40 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>B085GGLLR1</t>
+          <t>B08HYMDTTC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Smartwatch Watch GT2E Huawei HCT-B19 Preto
+Smartwatch HUAWEI Watch FIT - Preto
 </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79,90 </t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t xml:space="preserve"> 63,59 </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-bateria-frequ%C3%AAncia-card%C3%ADaca-oxig%C3%AAnio/dp/B08JTQ99NC/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-HCT-B19-Preto/dp/B0861R91Z8/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2633,35 +2898,40 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>B08JTQ99NC</t>
+          <t>B0861R91Z8</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH GT2 PRO 46MM
+Relógio Smartwatch Watch GT2E Huawei HCT-B19 Preto.
 </t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 135,02 </t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t xml:space="preserve"> 89,49 </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Watch-Rel%C3%B3gio-Smartwatch-Marrom/dp/B09DGNLR74/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Watch-GT-Sport-46mm/dp/B07XH9KHLR/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EBOXY</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2674,35 +2944,40 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>B09DGNLR74</t>
+          <t>B07XH9KHLR</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Watch 3 Pro Relógio Smartwatch Tela 1.43 pol. Marrom
+Huawei Watch GT 2 Sport 46mm
 </t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 423,07 </t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t xml:space="preserve"> 94,63 </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-4-PRETO/dp/B081XRLRZ5/ref=sr_1_20?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-FIT-PRETO/dp/B08G58CGT9/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JOHNNY BRAVO IMPORTS</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2715,35 +2990,40 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>B081XRLRZ5</t>
+          <t>B08G58CGT9</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART BAND 4 PRETO
+HUAWEI SMART WATCH FIT PRETO
 </t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,84 </t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t xml:space="preserve"> 50,39 </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>10</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Watch-GT-Sport-46mm/dp/B07XH9KHLR/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/inteligente-polegadas-atividade-frequ%C3%AAncia-satura%C3%A7%C3%A3o/dp/B082JGV1TJ/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2756,35 +3036,40 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>B07XH9KHLR</t>
+          <t>B082JGV1TJ</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Watch GT 2 Sport 46mm
+Pulseira inteligente Huawei Band 4 de 0,95 polegadas, monitor de atividade de fitness, monitor de frequência cardíaca, detecção de saturação de oxigênio no sangue, GPS integrado, 5 ATM à prova d 'água de longa duração
 </t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94,63 </t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t xml:space="preserve"> 32,74 </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>9</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-Active-Tela/dp/B09DGPHKTG/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/REL%C3%93GIO-SMARTWATCH-HUAWEI-WATCH-FIT/dp/B08G5953BG/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JACSHOP</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2797,30 +3082,35 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>B09DGPHKTG</t>
+          <t>B08G5953BG</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei Watch 3 Active Edition Tela 1.43 pol.
+HUAWEI SMART WATCH FIT ROSA
 </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 350,00 </t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t xml:space="preserve"> 69,84 </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>10</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Trabalhando-Rastreador-Freq%C3%BC%C3%AAncia-Imperme%C3%A1vel/dp/B07YP3PWNF/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Smartwatch-conectado-monitoramento-durante/dp/B0957GFQP9/ref=sr_1_19?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2838,35 +3128,36 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>B07YP3PWNF</t>
+          <t>B0957GFQP9</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI Relógio Gt 2 2019 Bluetooth Smart Watch, Esporte GPS 14 Dias Trabalhando Fitness Tracker, Monitor De Oxigênio No Sangue Rastreador De Freqüência Cardíaca Impermeável Para Android E Ios ,
-</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 92,66 </t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+Relógio HUAWEI 3
+</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-PRETO/dp/B0923DSVJJ/ref=sr_1_19?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/Smartband-Huawei-Monitoramento-Diversos-Vermelho/dp/B0817BD8F6/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Alfa Tecnológico</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2879,35 +3170,40 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>B0923DSVJJ</t>
+          <t>B0817BD8F6</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART BAND 6 PRETO
+Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Vermelho)
 </t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,15 </t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>9</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t xml:space="preserve"> 42,99 </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartband-Huawei-Monitoramento-Diversos-Vermelho/dp/B0817BD8F6/ref=sr_1_13?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-Amoled-454x454/dp/B07YGH63BG/ref=sr_1_20?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Alfa Tecnológico</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2920,30 +3216,35 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>B0817BD8F6</t>
+          <t>B07YGH63BG</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Vermelho)
+Smartwatch Huawei GT 2 46MM 2019 Relógio Inteligente, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD (Marrom)
 </t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42,99 </t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>10</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t xml:space="preserve"> 91,05 </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>10</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-42mm-Branco/dp/B0875LVYJY/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-42mm-Branco/dp/B0875LVYJY/ref=sr_1_13?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2976,20 +3277,25 @@
           <t xml:space="preserve"> 73,75 </t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>10</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-HCT-B19-Preto/dp/B0861R91Z8/ref=sr_1_24?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Watch-GT-Inteligente/dp/B085VTLD43/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3002,35 +3308,40 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>B0861R91Z8</t>
+          <t>B085VTLD43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Smartwatch Watch GT2E Huawei HCT-B19 Preto.
+Smartwatch HUAWEI Watch GT 2e, Relógio Inteligente Bluetooth, 46 mm, Sport GPS 14 dias de trabalho Fitness Tracker, Heart Rate Tracker, Monitor de oxigênio no sangue, à prova d'água para Android e iOS (Verde)
 </t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89,59 </t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t xml:space="preserve"> 121,40 </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>10</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-FIT-PRETO/dp/B08G58CGT9/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-GT2-42mm-Dianna/dp/B082JH1SZY/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>ZOOMStore</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3043,30 +3354,35 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>B08G58CGT9</t>
+          <t>B082JH1SZY</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH FIT PRETO
+Smartwatch Huawei GT2, 42mm, Dianna - Preto
 </t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53,56 </t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t xml:space="preserve"> 94,90 </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/REL%C3%93GIO-SMARTWATCH-HUAWEI-WATCH-FIT/dp/B08G5953BG/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Watch-GT-2e-Sport/dp/B085VMN6FH/ref=sr_1_21?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3084,35 +3400,40 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>B08G5953BG</t>
+          <t>B085VMN6FH</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH FIT ROSA
+HUAWEI Watch GT 2e Bluetooth SmartWatch, Sport GPS 14 Dias de Trabalho Rastreador de Fitness, Rastreador de Freqüência Cardíaca, Monitor de Oxigênio no Sangue, À Prova D 'Água para Android e iOS, 46mm Vermelho
 </t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66,84 </t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t xml:space="preserve"> 109,90 </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>10</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-46MM-PRETO/dp/B07YGJYGH7/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Watch-Huawei-HCT-B19/dp/B085GGLLR1/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>L_eletronicos</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3125,35 +3446,40 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>B07YGJYGH7</t>
+          <t>B085GGLLR1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH GT2 46MM PRETO
+Relógio Smartwatch Watch GT2E Huawei HCT-B19 Preto
 </t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82,71 </t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t xml:space="preserve"> 79,10 </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412XPQ/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-ROSA/dp/B0923KH2NG/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3166,35 +3492,34 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>B08F412XPQ</t>
+          <t>B0923KH2NG</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Verde)
-</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 67,08 </t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-GT2-42mm-Dianna/dp/B082JH1SZY/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartband-Colorida-Bluetooth-Monitoramento-diversos/dp/B07XTQR8TS/ref=sr_1_24?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ZOOMStore</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3207,30 +3532,35 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>B082JH1SZY</t>
+          <t>B07XTQR8TS</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT2, 42mm, Dianna - Preto
+Smartband Huawei Band 4, Tela 0,96" Colorida, Bluetooth, 5ATM à prova d'água, Monitoramento diversos (Rosa)
 </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94,90 </t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>10</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t xml:space="preserve"> 33,10 </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F413YZD/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F413YZD/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3260,23 +3590,28 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53,56 </t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>10</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t xml:space="preserve"> 52,97 </t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>10</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smart-Band-Huawei-Honor-Vers%C3%A3o/dp/B07X9DGLWZ/ref=sr_1_23?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
+          <t>https://www.amazon.com.br/Smartband-Colorida-Bluetooth-Monitoramento-diversos/dp/B07XTQWHJL/ref=sr_1_23?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3289,35 +3624,34 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>B07X9DGLWZ</t>
+          <t>B07XTQWHJL</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smart Band Huawei Honor 5 - Versão Global
-</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 31,18 </t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>7</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-Amoled-454x454/dp/B07YGH63BG/ref=sr_1_22?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412LGH/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3330,35 +3664,34 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>B07YGH63BG</t>
+          <t>B08F412LGH</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smartwatch Huawei GT 2 46MM 2019 Relógio Inteligente, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD (Marrom)
-</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91,05 </t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>10</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-ROSA/dp/B0923KH2NG/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Honor-Meteorite-Black-Sport/dp/B085T6K473/ref=sr_1_22?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SIKAICASE-Global</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3371,35 +3704,34 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>B0923KH2NG</t>
+          <t>B085T6K473</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-HUAWEI SMART BAND 6 ROSA
-</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 35,80 </t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412LGH/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636497056&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-Active-Tela/dp/B09DGPHKTG/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+watch+fit&amp;qid=1636678675&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3412,35 +3744,34 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>B08F412LGH</t>
+          <t>B09DGPHKTG</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Rosa)
-</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 66,90 </t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412LGH/ref=sr_1_21?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Watch-Rel%C3%B3gio-Smartwatch-Marrom/dp/B09DGNLR74/ref=sr_1_4?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3453,35 +3784,34 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>B08F412LGH</t>
+          <t>B09DGNLR74</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Rosa)
-</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 66,90 </t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartband-Huawei-Amoled-Monitoramento-Diversos/dp/B08179V446/ref=sr_1_22?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-FIT-PRETO/dp/B08G58CGT9/ref=sr_1_15?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Alfa Tecnológico</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3494,35 +3824,34 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>B08179V446</t>
+          <t>B08G58CGT9</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Preto)
-</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 36,92 </t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>10</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-bateria-frequ%C3%AAncia-card%C3%ADaca-oxig%C3%AAnio/dp/B08JTQ99NC/ref=sr_1_1?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-454x454-Castanho/dp/B07YP3WGML/ref=sr_1_24?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3535,35 +3864,40 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>B08JTQ99NC</t>
+          <t>B07YP3WGML</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH GT2 PRO 46MM
+Smartwatch Huawei GT 2 46MM 2019, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD, Castanho
 </t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 135,02 </t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>10</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t xml:space="preserve"> 100,04 </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Watch-GT-Sport-46mm/dp/B07XH9KHLR/ref=sr_1_6?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-GT2-46MM/dp/B08JTQ99NC/ref=sr_1_1?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3576,35 +3910,40 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>B07XH9KHLR</t>
+          <t>B08JTQ99NC</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Watch GT 2 Sport 46mm
+HUAWEI SMART WATCH GT2 PRO 46MM
 </t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94,63 </t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>10</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t xml:space="preserve"> 133,66 </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>10</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartband-Huawei-Amoled-Monitoramento-Diversos/dp/B081788H9P/ref=sr_1_19?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Trabalhando-Rastreador-Freq%C3%BC%C3%AAncia-Imperme%C3%A1vel/dp/B07YP3PWNF/ref=sr_1_8?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3617,35 +3956,34 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>B081788H9P</t>
+          <t>B07YP3PWNF</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Rosa)
-</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53,90 </t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>10</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Watch-Huawei-HCT-B19/dp/B085GGLLR1/ref=sr_1_8?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartband-Huawei-Monitoramento-Diversos-Vermelho/dp/B0817BD8F6/ref=sr_1_21?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>KJG ELETRONICOS</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3658,35 +3996,34 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>B085GGLLR1</t>
+          <t>B0817BD8F6</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Relógio Smartwatch Watch GT2E Huawei HCT-B19 Preto
-</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 79,90 </t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F413YZD/ref=sr_1_10?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Watch-GT-Inteligente/dp/B085VTLD43/ref=sr_1_10?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3699,35 +4036,34 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>B08F413YZD</t>
+          <t>B085VTLD43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Preto)
-</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53,56 </t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>10</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-Amoled-454x454/dp/B07YGH63BG/ref=sr_1_5?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-bateria-frequ%C3%AAncia-card%C3%ADaca-oxig%C3%AAnio/dp/B08JTDQTYT/ref=sr_1_2?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>JACSHOP</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3740,35 +4076,40 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>B07YGH63BG</t>
+          <t>B08JTDQTYT</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT 2 46MM 2019 Relógio Inteligente, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD (Marrom)
+Smartwatch Huawei GT 2 Pro, com 14 dias de vida útil da bateria, monitor de frequência cardíaca à prova d'água, monitor de oxigênio no sangue, Android e Ios, Versão Global (Marrom)
 </t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91,05 </t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>10</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t xml:space="preserve"> 146,43 </t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-HCT-B19-Preto/dp/B0861R91Z8/ref=sr_1_23?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412XPQ/ref=sr_1_22?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3781,35 +4122,40 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>B0861R91Z8</t>
+          <t>B08F412XPQ</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Smartwatch Watch GT2E Huawei HCT-B19 Preto.
+Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Verde)
 </t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89,59 </t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>10</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t xml:space="preserve"> 67,08 </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Watch-GT-2e-Sport/dp/B085VMN6FH/ref=sr_1_16?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Watch-GT-Sport-46mm/dp/B07XH9KHLR/ref=sr_1_5?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3822,35 +4168,34 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>B085VMN6FH</t>
+          <t>B07XH9KHLR</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-HUAWEI Watch GT 2e Bluetooth SmartWatch, Sport GPS 14 Dias de Trabalho Rastreador de Fitness, Rastreador de Freqüência Cardíaca, Monitor de Oxigênio no Sangue, À Prova D 'Água para Android e iOS, 46mm Vermelho
-</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 109,90 </t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>10</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-FIT-PRETO/dp/B08G58CGT9/ref=sr_1_15?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartband-Huawei-Amoled-Monitoramento-Diversos/dp/B081788H9P/ref=sr_1_23?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3863,35 +4208,40 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>B08G58CGT9</t>
+          <t>B081788H9P</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH FIT PRETO
+Smartband Huawei Band 4 Pro, Gps, Tela 0,95" Amoled, 5ATM, Monitoramento Diversos (Rosa)
 </t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53,56 </t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>10</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+          <t xml:space="preserve"> 53,90 </t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>10</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-Active-Tela/dp/B09DGPHKTG/ref=sr_1_3?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-Watch-GT/dp/B082S122W4/ref=sr_1_19?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JACSHOP</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3904,35 +4254,34 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>B09DGPHKTG</t>
+          <t>B082S122W4</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smartwatch Huawei Watch 3 Active Edition Tela 1.43 pol.
-</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 350,00 </t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>10</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-42mm-Branco/dp/B0875LVYJY/ref=sr_1_14?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Watch-Huawei-HCT-B19/dp/B085GGLLR1/ref=sr_1_18?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fast Shop Loja oficial</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3945,35 +4294,34 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>B0875LVYJY</t>
+          <t>B085GGLLR1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Smartwatch Huawei Watch GT 42mm, Ella, Branco
-</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 73,75 </t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>10</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-Leather-Marrom/dp/B07NF1ZFJX/ref=sr_1_20?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F412LGH/ref=sr_1_17?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Magazine wla</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3986,35 +4334,40 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>B07NF1ZFJX</t>
+          <t>B08F412LGH</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Smartwatch Huawei GT Leather GPS, Marrom
+Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Rosa)
 </t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 75,08 </t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>10</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+          <t xml:space="preserve"> 66,90 </t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>10</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-BAND-6-PRETO/dp/B0923DSVJJ/ref=sr_1_17?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-Active-Tela/dp/B09DGPHKTG/ref=sr_1_3?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>JACSHOP</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -4027,35 +4380,40 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>B0923DSVJJ</t>
+          <t>B09DGPHKTG</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART BAND 6 PRETO
+Smartwatch Huawei Watch 3 Active Edition Tela 1.43 pol.
 </t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33,15 </t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t xml:space="preserve"> 336,04 </t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-GT2-42mm-Dianna/dp/B082JH1SZY/ref=sr_1_9?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Watch-DAN-B19-Black-42mm/dp/B07XL3RHQK/ref=sr_1_20?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ZOOMStore</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -4068,35 +4426,40 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>B082JH1SZY</t>
+          <t>B07XL3RHQK</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT2, 42mm, Dianna - Preto
+Huawei Watch GT 2 DAN-B19 (Black, 42mm)
 </t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94,90 </t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>10</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+          <t xml:space="preserve"> 164,15 </t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Trabalhando-Rastreador-Freq%C3%BC%C3%AAncia-Imperme%C3%A1vel/dp/B07YP3PWNF/ref=sr_1_11?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-GT2-42mm-Dianna/dp/B082JH9DPV/ref=sr_1_7?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>COMPRAR E-COMMERCE</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4109,35 +4472,40 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>B07YP3PWNF</t>
+          <t>B082JH9DPV</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI Relógio Gt 2 2019 Bluetooth Smart Watch, Esporte GPS 14 Dias Trabalhando Fitness Tracker, Monitor De Oxigênio No Sangue Rastreador De Freqüência Cardíaca Impermeável Para Android E Ios ,
+Smartwatch Huawei GT2, 42mm, Dianna - Cinza
 </t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91,64 </t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>10</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+          <t xml:space="preserve"> 111,71 </t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>10</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-454x454-Castanho/dp/B07YP3WGML/ref=sr_1_12?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Watch-42mm-Branco/dp/B0875LVYJY/ref=sr_1_14?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>Fast Shop Loja oficial</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -4150,35 +4518,40 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>B07YP3WGML</t>
+          <t>B0875LVYJY</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT 2 46MM 2019, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD, Castanho
+Smartwatch Huawei Watch GT 42mm, Ella, Branco
 </t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100,04 </t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>10</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t xml:space="preserve"> 73,75 </t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>10</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/REL%C3%93GIO-SMARTWATCH-HUAWEI-WATCH-FIT/dp/B08G5953BG/ref=sr_1_7?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-Huawei-Bluetooth-Amoled-454x454/dp/B07YGH63BG/ref=sr_1_6?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -4191,35 +4564,40 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>B08G5953BG</t>
+          <t>B07YGH63BG</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH FIT ROSA
+Smartwatch Huawei GT 2 46MM 2019 Relógio Inteligente, Bluetooth 5.1, Tela 1,39" Amoled 454x454 HD (Marrom)
 </t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 66,84 </t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>10</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+          <t xml:space="preserve"> 91,05 </t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Watch-GT-Inteligente/dp/B085VTLD43/ref=sr_1_18?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-46MM-PRETO/dp/B07YGJYGH7/ref=sr_1_11?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -4232,35 +4610,40 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>B085VTLD43</t>
+          <t>B07YGJYGH7</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch HUAWEI Watch GT 2e, Relógio Inteligente Bluetooth, 46 mm, Sport GPS 14 dias de trabalho Fitness Tracker, Heart Rate Tracker, Monitor de oxigênio no sangue, à prova d'água para Android e iOS (Verde)
+HUAWEI SMART WATCH GT2 46MM PRETO
 </t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 121,40 </t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>10</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+          <t xml:space="preserve"> 82,71 </t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Smartwatch-bateria-frequ%C3%AAncia-card%C3%ADaca-oxig%C3%AAnio/dp/B08JTDQTYT/ref=sr_1_2?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/REL%C3%93GIO-SMARTWATCH-HUAWEI-WATCH-FIT/dp/B08G5953BG/ref=sr_1_9?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JACSHOP</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -4273,35 +4656,40 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>B08JTDQTYT</t>
+          <t>B08G5953BG</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Smartwatch Huawei GT 2 Pro, com 14 dias de vida útil da bateria, monitor de frequência cardíaca à prova d'água, monitor de oxigênio no sangue, Android e Ios, Versão Global (Marrom)
+HUAWEI SMART WATCH FIT ROSA
 </t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 146,43 </t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>10</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+          <t xml:space="preserve"> 69,84 </t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>10</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-SMART-WATCH-46MM-PRETO/dp/B07YGJYGH7/ref=sr_1_13?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Watch-GT-2e-Sport/dp/B085VMN6FH/ref=sr_1_16?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -4314,35 +4702,40 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>B07YGJYGH7</t>
+          <t>B085VMN6FH</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI SMART WATCH GT2 46MM PRETO
+HUAWEI Watch GT 2e Bluetooth SmartWatch, Sport GPS 14 Dias de Trabalho Rastreador de Fitness, Rastreador de Freqüência Cardíaca, Monitor de Oxigênio no Sangue, À Prova D 'Água para Android e iOS, 46mm Vermelho
 </t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82,71 </t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>10</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+          <t xml:space="preserve"> 109,90 </t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Watch-Rel%C3%B3gio-Smartwatch-Marrom/dp/B09DGNLR74/ref=sr_1_4?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Smartwatch-HUAWEI-Inteligente-polegadas-Rastreador/dp/B08F413YZD/ref=sr_1_13?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EBOXY</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -4355,35 +4748,40 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>B09DGNLR74</t>
+          <t>B08F413YZD</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Huawei Watch 3 Pro Relógio Smartwatch Tela 1.43 pol. Marrom
+Smartwatch HUAWEI Watch Fit Relógio Inteligente, Monitor AMOLED vívido de 1,6 polegadas, Animações de Treino Rápido, Bateria de 10 Dias de Vida Útil, Rastreador Esportivo GPS Fitness 5 ATM à prova d'água, para telefone Android e IOS (Preto)
 </t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 423,07 </t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>10</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+          <t xml:space="preserve"> 52,97 </t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>10</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-Watch-GT/dp/B082S122W4/ref=sr_1_24?keywords=huawei+watch+gt2+pro&amp;qid=1636497063&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Rel%C3%B3gio-Smartwatch-Huawei-HCT-B19-Preto/dp/B0861R91Z8/ref=sr_1_12?keywords=huawei+watch+gt2+pro&amp;qid=1636678684&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TopeSK STORE</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4396,35 +4794,40 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>B082S122W4</t>
+          <t>B0861R91Z8</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Relógio Smartwatch Huawei Watch GT 2 - Cinza Titânio
+Relógio Smartwatch Watch GT2E Huawei HCT-B19 Preto.
 </t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 135,90 </t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>10</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+          <t xml:space="preserve"> 89,49 </t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>10</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Intra-auriculares-cancelamento-confort%C3%A1vel-carregamento/dp/B08WH2CNDZ/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Freebuds-Earbuds-Bluetooth-Headset/dp/B08N4N6CFG/ref=sr_1_20?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Flash Shop E-commerce</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4437,35 +4840,40 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>B08WH2CNDZ</t>
+          <t>B08N4N6CFG</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fones de ouvido HUAWEI FreeBuds 4i, Intra-auriculares sem fio, com cancelamento de ruído ativo confortável, carregamento rápido, bateria de longa duração, som cristalino, microfone duplo (Branco)
+HUAWEI Freebuds Pro Active Noise Earbuds Bluetooth 5.2 Headset Sistema de 3 mic para iOS Android
 </t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51,71 </t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>10</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+          <t xml:space="preserve"> 99,90 </t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-4i-Bluetooth-Cancelamento-Comunica%C3%A7%C3%A3o/dp/B08YRRL948/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Estereo-Bluetooth-CM70-L-Huawei-5036-0/dp/B07TMPWDY6/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GEEKMALL</t>
+          <t>ZOOMStore</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4478,35 +4886,40 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>B08YRRL948</t>
+          <t>B07TMPWDY6</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fones de ouvido HUAWEI Freebuds 4i Sem fio, Bluetooth, Cancelamento de Ruído Ativo, Duração da Bateria 10H, Comunicação Suave, Sistema de Microfone Duplo
+Fone Estereo Bluetooth In Ear CM70-L Preto, Huawei, 5036.0, Preta
 </t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,00 </t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>10</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+          <t xml:space="preserve"> 37,30 </t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>10</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Bluetooth-Cancelamento-Comunica%C3%A7%C3%A3o-Microfone/dp/B094HVRJFF/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Intra-auriculares-cancelamento-confort%C3%A1vel-carregamento/dp/B08WHZCRQX/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GEEKMALL</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4519,30 +4932,35 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>B094HVRJFF</t>
+          <t>B08WHZCRQX</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fones de ouvido HUAWEI Freebuds 4i Sem fio, Bluetooth, Cancelamento de Ruído Ativo, Duração da Bateria 10H, Comunicação Suave, Sistema de Microfone Duplo
+Fones de ouvido HUAWEI FreeBuds 4i, Intra-auriculares sem fio, com cancelamento de ruído ativo confortável, carregamento rápido, bateria de longa duração, som cristalino, microfone duplo (Preto)
 </t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,00 </t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>10</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+          <t xml:space="preserve"> 49,50 </t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Bluetooth-cancelamento-inteligente-carregamento/dp/B08HCF1N4B/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Bluetooth-cancelamento-inteligente-carregamento/dp/B08HCTFT78/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4560,30 +4978,35 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>B08HCF1N4B</t>
+          <t>B08HCTFT78</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fone de ouvido HUAWEI FreeBuds Pro, Bluetooth sem fio, com cancelamento de ruído dinâmico inteligente, sistema de 3 mic, carregamento sem fio rápido (Branco)
+Fone de ouvido HUAWEI FreeBuds Pro, Bluetooth sem fio, com cancelamento de ruído dinâmico inteligente, sistema de 3 mic, carregamento sem fio rápido (Prata)
 </t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 92,90 </t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>10</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+          <t xml:space="preserve"> 88,60 </t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Fone-Ouvido-HUAWEI-FreeBuds-3i/dp/B087N9V1KD/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-FreeBuds-cancelamento-alto-falante-carregamento/dp/B082Q4KZF8/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4601,35 +5024,40 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>B087N9V1KD</t>
+          <t>B082Q4KZF8</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fone de Ouvido HUAWEI FreeBuds 3i - Ceramic White
+HUAWEI FreeBuds 3 – Fone de ouvido Bluetooth sem fio com cancelamento de ruído inteligente (chip Kirin A1, latência ultrabaixa, conexão Bluetooth rápida, alto-falante de 14 mm, carregamento rápido sem fio) (vermelho)
 </t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 69,90 </t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>10</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+          <t xml:space="preserve"> 99,90 </t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>10</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Intra-auriculares-cancelamento-confort%C3%A1vel-carregamento/dp/B08WHZCRQX/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Intra-auriculares-cancelamento-confort%C3%A1vel-carregamento/dp/B08WH2CNDZ/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GEEKMALL</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4642,35 +5070,40 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>B08WHZCRQX</t>
+          <t>B08WH2CNDZ</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fones de ouvido HUAWEI FreeBuds 4i, Intra-auriculares sem fio, com cancelamento de ruído ativo confortável, carregamento rápido, bateria de longa duração, som cristalino, microfone duplo (Preto)
+Fones de ouvido HUAWEI FreeBuds 4i, Intra-auriculares sem fio, com cancelamento de ruído ativo confortável, carregamento rápido, bateria de longa duração, som cristalino, microfone duplo (Branco)
 </t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47,00 </t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>10</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+          <t xml:space="preserve"> 51,76 </t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>10</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Ouvido-Bluetooth-Huawei-Freebuds3-Branco/dp/B07YXZT12X/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Trabalhando-Rastreador-Freq%C3%BC%C3%AAncia-Imperme%C3%A1vel/dp/B07YP3PWNF/ref=sr_1_19?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>COMPRAR E-COMMERCE</t>
+          <t>CYROTECH</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4683,35 +5116,40 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>B07YXZT12X</t>
+          <t>B07YP3PWNF</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fone De Ouvido Bluetooth Huawei Freebuds3 Branco
+HUAWEI Relógio Gt 2 2019 Bluetooth Smart Watch, Esporte GPS 14 Dias Trabalhando Fitness Tracker, Monitor De Oxigênio No Sangue Rastreador De Freqüência Cardíaca Impermeável Para Android E Ios ,
 </t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 77,15 </t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>10</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+          <t xml:space="preserve"> 89,94 </t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>10</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Bluetooth-cancelamento-inteligente-carregamento/dp/B08HCTFT78/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Ouvido-Bluetooth-Huawei-Freebuds3-Branco/dp/B07YXZT12X/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>COMPRAR E-COMMERCE</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4724,35 +5162,40 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>B08HCTFT78</t>
+          <t>B07YXZT12X</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fone de ouvido HUAWEI FreeBuds Pro, Bluetooth sem fio, com cancelamento de ruído dinâmico inteligente, sistema de 3 mic, carregamento sem fio rápido (Prata)
+Fone De Ouvido Bluetooth Huawei Freebuds3 Branco
 </t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90,39 </t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>10</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+          <t xml:space="preserve"> 79,59 </t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>10</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-FREE-BUDS-BRANCO-Pequeno/dp/B096M2KNPR/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-carregamento-cancelamento-inteligente-alto-falante/dp/B089K72PZJ/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>EBOXY</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -4765,35 +5208,40 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>B096M2KNPR</t>
+          <t>B089K72PZJ</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI FREE BUDS 4I BRANCO, Pequeno
+HUAWEI FreeBuds 3 Capa de carregamento com fio Fone de ouvido Bluetooth Fone de ouvido com cancelamento inteligente de ruído, chipset Kirin A1, latência ultrabaixa, conexão rápida Bluetooth 5.1, fone de ouvido com alto-falante de 14 mm, branco
 </t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57,90 </t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>10</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+          <t xml:space="preserve"> 76,10 </t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>10</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Estereo-Bluetooth-Freebuds-Huawei-5038-0/dp/B07TLMCH1R/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10</t>
+          <t>https://www.amazon.com.br/HUAWEI-Bluetooth-cancelamento-inteligente-carregamento/dp/B08HCF1N4B/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4806,31 +5254,40 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>B07TLMCH1R</t>
+          <t>B08HCF1N4B</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fone Estereo Bluetooth Freebuds Lite CM-H1 C Branco, Huawei, 5038.0, Branca
-</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+Fone de ouvido HUAWEI FreeBuds Pro, Bluetooth sem fio, com cancelamento de ruído dinâmico inteligente, sistema de 3 mic, carregamento sem fio rápido (Branco)
+</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 92,90 </t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>10</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Trabalhando-Rastreador-Freq%C3%BC%C3%AAncia-Imperme%C3%A1vel/dp/B07YP3PWNF/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Bluetooth-Cancelamento-Comunica%C3%A7%C3%A3o-Microfone/dp/B094HVRJFF/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CYROTECH</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4843,35 +5300,40 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>B07YP3PWNF</t>
+          <t>B094HVRJFF</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI Relógio Gt 2 2019 Bluetooth Smart Watch, Esporte GPS 14 Dias Trabalhando Fitness Tracker, Monitor De Oxigênio No Sangue Rastreador De Freqüência Cardíaca Impermeável Para Android E Ios ,
+Fones de ouvido HUAWEI Freebuds 4i Sem fio, Bluetooth, Cancelamento de Ruído Ativo, Duração da Bateria 10H, Comunicação Suave, Sistema de Microfone Duplo
 </t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91,64 </t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>10</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+          <t xml:space="preserve"> 47,00 </t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>10</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-carregamento-cancelamento-inteligente-alto-falante/dp/B089K72PZJ/ref=sr_1_13?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Fone-Ouvido-HUAWEI-FreeBuds-3i/dp/B087N9V1KD/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>EBOXY</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4884,35 +5346,40 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>B089K72PZJ</t>
+          <t>B087N9V1KD</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI FreeBuds 3 Capa de carregamento com fio Fone de ouvido Bluetooth Fone de ouvido com cancelamento inteligente de ruído, chipset Kirin A1, latência ultrabaixa, conexão rápida Bluetooth 5.1, fone de ouvido com alto-falante de 14 mm, branco
+Fone de Ouvido HUAWEI FreeBuds 3i - Ceramic White
 </t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101,67 </t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>10</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+          <t xml:space="preserve"> 69,90 </t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>10</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-FreeBuds-3i-cancelamento-carregamento/dp/B089CXT4LH/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Estereo-Bluetooth-Freebuds-Huawei-5038-0/dp/B07TLMCH1R/ref=sr_1_13?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4925,30 +5392,31 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>B089CXT4LH</t>
+          <t>B07TLMCH1R</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fone de Ouvido Huawei FreeBuds 3i, Bluetooth 5.1 TWS - Branco
-</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54,00 </t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>10</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+Fone Estereo Bluetooth Freebuds Lite CM-H1 C Branco, Huawei, 5038.0, Branca
+</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Fone-Ouvido-Huawei-FreeBuds-Bluetooth/dp/B08LW1ZZKZ/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Fone-Ouvido-Huawei-FreeBuds-Bluetooth/dp/B08LW1ZZKZ/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4981,20 +5449,25 @@
           <t xml:space="preserve"> 49,49 </t>
         </is>
       </c>
-      <c r="H111" t="n">
-        <v>10</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>10</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Ouvido-Bluetooth-Huawei-Freebuds3-Preto/dp/B07YXZJP1P/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-FreeBuds-3i-cancelamento-carregamento/dp/B089CXT4LH/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -5007,29 +5480,40 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>B07YXZJP1P</t>
+          <t>B089CXT4LH</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Erro</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+          <t xml:space="preserve">
+Fone de Ouvido Huawei FreeBuds 3i, Bluetooth 5.1 TWS - Branco
+</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54,00 </t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>10</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-P30-Lite-Vers%C3%A3o-Global/dp/B07PXSNRYY/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Ouvido-Bluetooth-Huawei-Freebuds3-Preto/dp/B07YXZJP1P/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Reinak</t>
+          <t>EBOXY</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -5042,35 +5526,40 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>B07PXSNRYY</t>
+          <t>B07YXZJP1P</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI P30 Lite - 4GB RAM 128GB - Versão Global
+Fone De Ouvido Bluetooth Huawei Freebuds3 Preto
 </t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 149,90 </t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>10</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+          <t xml:space="preserve"> 63,90 </t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>10</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Estereo-Bluetooth-CM70-L-Huawei-5036-0/dp/B07TMPWDY6/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-P30-Lite-Vers%C3%A3o-Global/dp/B07PXSNRYY/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ZOOMStore</t>
+          <t>JPS IMPORTS (NOTA FISCAL)</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -5083,35 +5572,40 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>B07TMPWDY6</t>
+          <t>B07PXSNRYY</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fone Estereo Bluetooth In Ear CM70-L Preto, Huawei, 5036.0, Preta
+HUAWEI P30 Lite - 4GB RAM 128GB - Versão Global
 </t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,30 </t>
-        </is>
-      </c>
-      <c r="H114" t="n">
-        <v>10</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+          <t xml:space="preserve"> 152,90 </t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>10</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-Freebuds-Earbuds-Bluetooth-Headset/dp/B08HCWPMM1/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636497070&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-FREE-BUDS-BRANCO-Pequeno/dp/B096M2KNPR/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -5124,35 +5618,40 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>B08HCWPMM1</t>
+          <t>B096M2KNPR</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI Freebuds Pro Active Noise Earbuds Bluetooth 5.2 Headset Sistema de 3 mic para iOS Android
+HUAWEI FREE BUDS 4I BRANCO, Pequeno
 </t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 109,90 </t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>10</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+          <t xml:space="preserve"> 57,90 </t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>10</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Huawei-Wifi-WS5800-Software/dp/B08KGXJ7DY/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636497078&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-Freebuds-Earbuds-Bluetooth-Headset/dp/B08HCWPMM1/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ALFAINFOSHOP C/ NOTA NFe</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -5165,39 +5664,40 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>B08KGXJ7DY</t>
+          <t>B08HCWPMM1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Huawei Wifi WS5800 Mesh + Software
+HUAWEI Freebuds Pro Active Noise Earbuds Bluetooth 5.2 Headset Sistema de 3 mic para iOS Android
 </t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95,80 </t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>10</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Huawei WS5200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 99,90 </t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>10</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Portas-Hg8546m-Caixa-Branca/dp/B07JMSLP7J/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636497078&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+          <t>https://www.amazon.com.br/HUAWEI-4i-Bluetooth-Cancelamento-Comunica%C3%A7%C3%A3o/dp/B08YRRL948/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=huawei+freebuds+4i&amp;qid=1636678694&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>REDE DE OFERTAS</t>
+          <t>GEEKMALL</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -5210,39 +5710,40 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>B07JMSLP7J</t>
+          <t>B08YRRL948</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Onu 4 Portas Wifi Hg8546m Caixa Branca - Huawei
+Fones de ouvido HUAWEI Freebuds 4i Sem fio, Bluetooth, Cancelamento de Ruído Ativo, Duração da Bateria 10H, Comunicação Suave, Sistema de Microfone Duplo
 </t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35,00 </t>
-        </is>
-      </c>
-      <c r="H117" t="n">
-        <v>5</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Huawei WS5200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 47,00 </t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>10</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ROTEADOR-HUAWEI-WIFI-DUAL-CORE/dp/B08L99FX23/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636497078&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Huawei-WS7200-WiFi-Software/dp/B08KGYZ5HZ/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636678709&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MARIA.D.L.G LLC</t>
+          <t>Thaun Shop</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -5255,25 +5756,30 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>B08L99FX23</t>
+          <t>B08KGYZ5HZ</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ROTEADOR HUAWEI WIFI AX3 DUAL CORE
+Roteador Huawei WS7200 WiFi AX3 + Software
 </t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,98 </t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>10</v>
-      </c>
-      <c r="I118" t="inlineStr">
+          <t xml:space="preserve"> 64,07 </t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>10</v>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>Huawei WS5200</t>
         </is>
@@ -5282,7 +5788,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Huawei-Watch-GT-Sport-46mm/dp/B07XH9KHLR/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636497078&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Huawei-Watch-GT-Sport-46mm/dp/B07XH9KHLR/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636678709&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5315,10 +5821,15 @@
           <t xml:space="preserve"> 94,63 </t>
         </is>
       </c>
-      <c r="H119" t="n">
-        <v>10</v>
-      </c>
-      <c r="I119" t="inlineStr">
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>10</v>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>Huawei WS5200</t>
         </is>
@@ -5327,7 +5838,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Desempenho-Huawei-Ws5200-Antenas/dp/B08KFM98BW/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636497078&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/Roteador-Desempenho-Huawei-Ws5200-Antenas/dp/B08KFM98BW/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636678709&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5360,10 +5871,15 @@
           <t xml:space="preserve"> 31,00 </t>
         </is>
       </c>
-      <c r="H120" t="n">
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>9</v>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>Huawei WS5200</t>
         </is>
@@ -5372,7 +5888,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-ROTEADOR-WS5200-WIFI-BRANCO/dp/B092K69PHJ/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636497078&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-ROTEADOR-WS5200-WIFI-BRANCO/dp/B092K69PHJ/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636678709&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5405,10 +5921,15 @@
           <t xml:space="preserve"> 37,90 </t>
         </is>
       </c>
-      <c r="H121" t="n">
-        <v>10</v>
-      </c>
-      <c r="I121" t="inlineStr">
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>10</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>Huawei WS5200</t>
         </is>
@@ -5417,12 +5938,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wifi-Huawei-Ax3-quad-core/dp/B08L9B84K7/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636497078&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Huawei-Wifi-WS5800-Software/dp/B08KGXJ7DY/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636678709&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>MOCKIMPORTS</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -5435,25 +5956,30 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>B08L9B84K7</t>
+          <t>B08KGXJ7DY</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wifi - Huawei Wifi Ax3 (quad-core)
+Roteador Huawei Wifi WS5800 Mesh + Software
 </t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55,70 </t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>10</v>
-      </c>
-      <c r="I122" t="inlineStr">
+          <t xml:space="preserve"> 113,90 </t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>10</v>
+      </c>
+      <c r="J122" t="inlineStr">
         <is>
           <t>Huawei WS5200</t>
         </is>
@@ -5462,7 +5988,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Huawei-WS7200-WiFi-Software/dp/B08KGYZ5HZ/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636497078&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ROTEADOR-HUAWEI-WIFI-DUAL-CORE/dp/B08L99FX23/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636678709&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5480,25 +6006,30 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>B08KGYZ5HZ</t>
+          <t>B08L99FX23</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Huawei WS7200 WiFi AX3 + Software
+ROTEADOR HUAWEI WIFI AX3 DUAL CORE
 </t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 64,05 </t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>10</v>
-      </c>
-      <c r="I123" t="inlineStr">
+          <t xml:space="preserve"> 45,44 </t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>10</v>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>Huawei WS5200</t>
         </is>
@@ -5507,7 +6038,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wi-Fi-Huawei-2-4-5-0/dp/B07D7MVKT2/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636497078&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/Roteador-Wi-Fi-Huawei-2-4-5-0/dp/B07D7MVKT2/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636678709&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5537,13 +6068,18 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,60 </t>
-        </is>
-      </c>
-      <c r="H124" t="n">
+          <t xml:space="preserve"> 30,49 </t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>9</v>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>Huawei WS5200</t>
         </is>
@@ -5552,12 +6088,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/DIR-X1860-Roteador-Wireless-1800Mbps-Gigabit-Ethernet/dp/B08ZSC8TRD/ref=sr_1_20?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Portas-Hg8546m-Caixa-Branca/dp/B07JMSLP7J/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636678709&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>REDE DE OFERTAS</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -5570,35 +6106,44 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>B08ZSC8TRD</t>
+          <t>B07JMSLP7J</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t xml:space="preserve">
-DIR-X1860 - Roteador Wireless Wi-Fi 6 1800Mbps Gigabit-Ethernet 802.11AX
+Roteador Onu 4 Portas Wifi Hg8546m Caixa Branca - Huawei
 </t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 679,99 em até 10x de R$ 68,08 </t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>679</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+          <t xml:space="preserve"> 35,00 </t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>5</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Huawei WS5200</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-MERCUSYS-AC12G-Wireless-Gigabit/dp/B0947JXP93/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+          <t>https://www.amazon.com.br/Roteador-Wifi-Huawei-Ax3-quad-core/dp/B08L9B84K7/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+ws5200&amp;qid=1636678709&amp;refinements=p_89%3AHUAWEI%2Cp_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -5611,35 +6156,44 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>B0947JXP93</t>
+          <t>B08L9B84K7</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador MERCUSYS AC12G Wireless Gigabit Dual Band AC1200 Preto Grande
+Roteador Wifi - Huawei Wifi Ax3 (quad-core)
 </t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,55 </t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>6</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+          <t xml:space="preserve"> 55,70 </t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>10</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Huawei WS5200</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-ROTEADOR-WS5200-WIFI-BRANCO/dp/B092K69PHJ/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Portas-Hg8546m-Caixa-Branca/dp/B07JMSLP7J/ref=sr_1_19?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MPCEL</t>
+          <t>REDE DE OFERTAS</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -5652,35 +6206,40 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>B092K69PHJ</t>
+          <t>B07JMSLP7J</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI ROTEADOR WS5200 WIFI BRANCO OPEN
+Roteador Onu 4 Portas Wifi Hg8546m Caixa Branca - Huawei
 </t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,90 </t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>10</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+          <t xml:space="preserve"> 35,00 </t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>5</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/TP-Link-Roteador-Wireless-Antenas-Preto/dp/B01LX8Z8TP/ref=sr_1_13?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
+          <t>https://www.amazon.com.br/Roteador-Wi-Fi-Huawei-2-4-5-0/dp/B07D7MVKT2/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5693,35 +6252,40 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>B01LX8Z8TP</t>
+          <t>B07D7MVKT2</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
           <t xml:space="preserve">
-TP-Link AC 1350 Archer C60 Roteador Wireless Dual Band, Branco
+Roteador Wi-Fi Huawei 2.4/5.0 GHz - WS5200
 </t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 229,00 em até 7x de R$ 32,74 </t>
-        </is>
-      </c>
-      <c r="H128" t="n">
-        <v>229</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+          <t xml:space="preserve"> 30,49 </t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>9</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-TP-LINK-Wireless-AC1200-C50-W/dp/B09CV7S4YX/ref=sr_1_24?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+          <t>https://www.amazon.com.br/Roteador-WS7100-Dual-core-Huawei-Branco/dp/B097YMZMNB/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>REX INFORMATICA</t>
+          <t>MOCKIMPORTS</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5734,35 +6298,40 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>B09CV7S4YX</t>
+          <t>B097YMZMNB</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador TP-LINK Wireless Dual Band AC1200 Archer C50-W
+Roteador Wifi AX3 WS7100 Dual-core Huawei Branco
 </t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,95 </t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>6</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+          <t xml:space="preserve"> 41,50 </t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>10</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Huawei-WS7200-WiFi-Software/dp/B08KGYZ5HZ/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-TP-Link-Archer-AX73-Gigabit/dp/B08P94H63W/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Thaun Shop</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -5775,35 +6344,40 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>B08KGYZ5HZ</t>
+          <t>B08P94H63W</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Huawei WS7200 WiFi AX3 + Software
+Roteador TP-Link Archer AX73 Wi-Fi 6 Gigabit Dual Band AX5400
 </t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 64,05 </t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>10</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+          <t xml:space="preserve"> 101,61 </t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>10</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-TP-Link-Roteadores-TL-WR940N/dp/B074JHX83R/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+          <t>https://www.amazon.com.br/ROTEADOR-HUAWEI-WIFI-DUAL-CORE/dp/B08L99FX23/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>Thaun Shop</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5816,30 +6390,35 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>B074JHX83R</t>
+          <t>B08L99FX23</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t xml:space="preserve">
-TP-Link TL-WR940N Roteador Wireless N, 450Mbps, Preto
+ROTEADOR HUAWEI WIFI AX3 DUAL CORE
 </t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 169,29 em até 5x de R$ 33,89 </t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>169</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+          <t xml:space="preserve"> 45,44 </t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>10</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-MU-MIMO-Dual-Band-Antenas-Gigabit/dp/B088HLF4F8/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.6a09f7ec-d911-4889-ad70-de8dd83c8a74</t>
+          <t>https://www.amazon.com.br/Roteador-MERCUSYS-AC12G-Wireless-Gigabit/dp/B0947JXP93/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5857,35 +6436,40 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>B088HLF4F8</t>
+          <t>B0947JXP93</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wireless 1200Mbps Gigabit DIR-841
+Roteador MERCUSYS AC12G Wireless Gigabit Dual Band AC1200 Preto Grande
 </t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36,74 </t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>4</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+          <t xml:space="preserve"> 30,55 </t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>6</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ROTEADOR-AX1500-ARCHER-AX10-TP-LINK/dp/B07YP3T5H7/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Wireless-1200Mbps-AC10-Tenda/dp/B07DGPYKLP/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>MAGIC WORLD ELETRONICOS</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -5898,35 +6482,40 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>B07YP3T5H7</t>
+          <t>B07DGPYKLP</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador TP-Link Archer AX10, Wi-Fi 6 Dual Band
+Roteador Tenda 1200Mbps 4 Antenas - AC10
 </t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,57 </t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>10</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+          <t xml:space="preserve"> 31,32 </t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>7</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Portas-Hg8546m-Caixa-Branca/dp/B07JMSLP7J/ref=sr_1_19?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+          <t>https://www.amazon.com.br/Roteador-TP-Link-Roteadores-TL-WR940N/dp/B074JHX83R/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>REDE DE OFERTAS</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -5939,35 +6528,40 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>B07JMSLP7J</t>
+          <t>B074JHX83R</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Onu 4 Portas Wifi Hg8546m Caixa Branca - Huawei
+TP-Link TL-WR940N Roteador Wireless N, 450Mbps, Preto
 </t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35,00 </t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>5</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+          <t xml:space="preserve"> 170,72 em até 5x de R$ 34,16 </t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>170</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Xiaomi-Wireless-Antenas-300Mbps/dp/B07L6XGGQM/ref=sr_1_22?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.6a09f7ec-d911-4889-ad70-de8dd83c8a74</t>
+          <t>https://www.amazon.com.br/ROTEADOR-AX1500-ARCHER-AX10-TP-LINK/dp/B07YP3T5H7/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Onix Games</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -5980,35 +6574,40 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>B07L6XGGQM</t>
+          <t>B07YP3T5H7</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Xiaomi 4c Wifi Wireless 4 Antenas 300Mbps 2.4g 64Mb
+Roteador TP-Link Archer AX10, Wi-Fi 6 Dual Band
 </t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,49 </t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>4</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+          <t xml:space="preserve"> 39,57 </t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>10</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Huawei-Wifi-WS5800-Software/dp/B08KGXJ7DY/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Desempenho-Huawei-Ws5200-Antenas/dp/B08KFM98BW/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ALFAINFOSHOP C/ NOTA NFe</t>
+          <t>ESG Market</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -6021,30 +6620,35 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>B08KGXJ7DY</t>
+          <t>B08KFM98BW</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Huawei Wifi WS5800 Mesh + Software
+Roteador Wifi Alto Desempenho Gamer Huawei Ws5200 4 Antenas Anatel
 </t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95,80 </t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>10</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+          <t xml:space="preserve"> 31,00 </t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>9</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-TP-Link-Archer-AX73-Gigabit/dp/B08P94H63W/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ROTEADOR-WIRELESS-MU-MIMO-ARCHER-C80/dp/B099GSQRZF/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6062,35 +6666,40 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>B08P94H63W</t>
+          <t>B099GSQRZF</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador TP-Link Archer AX73 Wi-Fi 6 Gigabit Dual Band AX5400
+ROTEADOR WIRELESS AC1900 MU-MIMO ARCHER C80 BR
 </t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 103,61 </t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>10</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+          <t xml:space="preserve"> 49,05 </t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>10</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wireless-1200Mbps-AC10-Tenda/dp/B07DGPYKLP/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.e05b01e0-91a7-477e-a514-15a32325a6d6</t>
+          <t>https://www.amazon.com.br/Roteador-Huawei-WS7200-WiFi-Software/dp/B08KGYZ5HZ/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>Thaun Shop</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -6103,35 +6712,40 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>B07DGPYKLP</t>
+          <t>B08KGYZ5HZ</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Tenda 1200Mbps 4 Antenas - AC10
+Roteador Huawei WS7200 WiFi AX3 + Software
 </t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,30 </t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>8</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+          <t xml:space="preserve"> 64,07 </t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>10</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Desempenho-Huawei-Ws5200-Antenas/dp/B08KFM98BW/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/Roteador-Wireless-TP-Link-Archer-AC1200/dp/B08GDC3534/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ESG Market</t>
+          <t>ITX GAMER</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -6144,30 +6758,35 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>B08KFM98BW</t>
+          <t>B08GDC3534</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wifi Alto Desempenho Gamer Huawei Ws5200 4 Antenas Anatel
+Roteador Wireless TP-Link Archer C6, Dual Band, AC1200
 </t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,00 </t>
-        </is>
-      </c>
-      <c r="H139" t="n">
+          <t xml:space="preserve"> 31,96 </t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>9</v>
       </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Gamer-Ac1200Mbps-Tenda-Preto/dp/B06X1CHFJ5/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
+          <t>https://www.amazon.com.br/TP-Link-Roteador-Wireless-Antenas-Preto/dp/B01LX8Z8TP/ref=sr_1_13?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6185,30 +6804,35 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>B06X1CHFJ5</t>
+          <t>B01LX8Z8TP</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wifi Gamer Ac1200Mbps 4Ant Tenda Ac6, Preto
+TP-Link AC 1350 Archer C60 Roteador Wireless Dual Band, Branco
 </t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,27 </t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>7</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+          <t xml:space="preserve"> 229,00 em até 7x de R$ 32,74 </t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>229</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wireless-TP-Link-Archer-AC1200/dp/B08GDC3534/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/ROTEADOR-AC1900-MU-MIMO-ARCHER-C80/dp/B0859MHXXB/ref=sr_1_21?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6226,35 +6850,40 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>B08GDC3534</t>
+          <t>B0859MHXXB</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wireless TP-Link Archer C6, Dual Band, AC1200
+Roteador TP-Link Archer C80 Wireless MU-MIMO
 </t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,72 </t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>9</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+          <t xml:space="preserve"> 399,88 em até 10x de R$ 40,06 </t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>399</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wi-Fi-Huawei-2-4-5-0/dp/B07D7MVKT2/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/Roteador-Xiaomi-AX1800-Wireless-4xAntenas/dp/B08MQ7JDZT/ref=sr_1_20?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>CAICHA BAZAR</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -6267,30 +6896,35 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>B07D7MVKT2</t>
+          <t>B08MQ7JDZT</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wi-Fi Huawei 2.4/5.0 GHz - WS5200
+Roteador Xiaomi AX1800, 5 Core WiFi 6 Dual Band Wireless WiFi, Mesh OFDMA 1775MBps 4xAntenas 256MB - Branco
 </t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,60 </t>
-        </is>
-      </c>
-      <c r="H142" t="n">
-        <v>9</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+          <t xml:space="preserve"> 37,60 </t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>10</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wifi-Huawei-Ax3-quad-core/dp/B08L9B84K7/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Wifi-Huawei-Ax3-quad-core/dp/B08L9B84K7/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6323,10 +6957,15 @@
           <t xml:space="preserve"> 55,70 </t>
         </is>
       </c>
-      <c r="H143" t="n">
-        <v>10</v>
-      </c>
-      <c r="I143" t="inlineStr">
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>10</v>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -6335,12 +6974,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ROTEADOR-AC1900-MU-MIMO-ARCHER-C80/dp/B0859MHXXB/ref=sr_1_23?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Wireless-1200Mbps-Gigabit-Ethernet-802-11Ac/dp/B088HKC32B/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>Multmaxx</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -6353,35 +6992,40 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>B0859MHXXB</t>
+          <t>B088HKC32B</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador TP-Link Archer C80 Wireless MU-MIMO
+Roteador Wireless Ac 1200Mbps Wan/Lan Gigabit-Ethernet 802.11Ac com 4 Antenas Externas 5Dbi
 </t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 399,88 em até 10x de R$ 40,06 </t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>399</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+          <t xml:space="preserve"> 32,50 </t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>6</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ROTEADOR-HUAWEI-WIFI-DUAL-CORE/dp/B08L99FX23/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/DIR-X1860-Roteador-Wireless-1800Mbps-Gigabit-Ethernet/dp/B08ZSC8TRD/ref=sr_1_22?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MARIA.D.L.G LLC</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -6394,35 +7038,40 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>B08L99FX23</t>
+          <t>B08ZSC8TRD</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ROTEADOR HUAWEI WIFI AX3 DUAL CORE
+DIR-X1860 - Roteador Wireless Wi-Fi 6 1800Mbps Gigabit-Ethernet 802.11AX
 </t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,98 </t>
-        </is>
-      </c>
-      <c r="H145" t="n">
-        <v>10</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+          <t xml:space="preserve"> 679,99 em até 10x de R$ 68,08 </t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>679</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Xiaomi-AX1800-Wireless-4xAntenas/dp/B08MQ7JDZT/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Gamer-Ac1200Mbps-Tenda-Preto/dp/B06X1CHFJ5/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.4bb5663b-6f7d-4772-84fa-7c7f565ec65b</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CAICHA BAZAR</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -6435,35 +7084,40 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>B08MQ7JDZT</t>
+          <t>B06X1CHFJ5</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Xiaomi AX1800, 5 Core WiFi 6 Dual Band Wireless WiFi, Mesh OFDMA 1775MBps 4xAntenas 256MB - Branco
+Roteador Wifi Gamer Ac1200Mbps 4Ant Tenda Ac6, Preto
 </t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,60 </t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>10</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+          <t xml:space="preserve"> 32,27 </t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-WS7100-Dual-core-Huawei-Branco/dp/B097YMZMNB/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Rtac59u-Ac1500-Dband-Mumimo/dp/B088P36VBB/ref=sr_1_24?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MOCKIMPORTS</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -6476,35 +7130,40 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>B097YMZMNB</t>
+          <t>B088P36VBB</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wifi AX3 WS7100 Dual-core Huawei Branco
+Roteador Asus RTAC59U AC1500 DBand 4Ant Wifi MUMIMO Gig IPV6 - PN # 90IG0540-BY8400 (RT-AC59U)
 </t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,50 </t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>10</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+          <t xml:space="preserve"> 32,40 </t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>10</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Tp-Link-Archer-Router-Gigabit/dp/B07STQT85G/ref=sr_1_21?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636497085&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+          <t>https://www.amazon.com.br/Roteador-Xiaomi-Wireless-Antenas-300Mbps/dp/B07L6XGGQM/ref=sr_1_23?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.6a09f7ec-d911-4889-ad70-de8dd83c8a74</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>stor electronic</t>
+          <t>Onix Games</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -6517,35 +7176,40 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>B07STQT85G</t>
+          <t>B07L6XGGQM</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Tp-Link Archer C50 Router Ac1200 Dual Band Gigabit
+Roteador Xiaomi 4c Wifi Wireless 4 Antenas 300Mbps 2.4g 64Mb
 </t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,04 </t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>6</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+          <t xml:space="preserve"> 37,49 </t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>4</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-mercusys-wireless-gigabit-ac1200/dp/B07SP6P2MP/ref=sr_1_19?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
+          <t>https://www.amazon.com.br/Roteador-Huawei-Wifi-WS5800-Software/dp/B08KGXJ7DY/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tecnologia em Partes II</t>
+          <t>MOCKIMPORTS</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -6558,39 +7222,40 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>B07SP6P2MP</t>
+          <t>B08KGXJ7DY</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Mercusys AC12G Wireless Gigabit Dual Band AC1200
+Roteador Huawei Wifi WS5800 Mesh + Software
 </t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32,50 </t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>6</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Huawei WS7200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 113,90 </t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>10</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Ax3000-Gigabit-Wi-fi-Router/dp/B07Z8833C7/ref=sr_1_21?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/HUAWEI-ROTEADOR-WS5200-WIFI-BRANCO/dp/B092K69PHJ/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=Roteador+Huawei+AX3&amp;qid=1636678720&amp;refinements=p_n_condition-type%3A13862762011&amp;rnid=13862761011&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>MPCEL</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -6603,39 +7268,40 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>B07Z8833C7</t>
+          <t>B092K69PHJ</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador TP-Link Archer AX50 Wi-Fi 6 Dual Band Gigabit AX3000
+HUAWEI ROTEADOR WS5200 WIFI BRANCO OPEN
 </t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83,09 </t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>10</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Huawei WS7200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 37,90 </t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>10</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-TP-Link-AX1800-Archer-AX20/dp/B088H34DW9/ref=sr_1_24?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Wireless-TP-Link-Archer-AC1200/dp/B08GDC3534/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ALFAINFOSHOP C/ NOTA NFe</t>
+          <t>ITX GAMER</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -6648,25 +7314,30 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>B088H34DW9</t>
+          <t>B08GDC3534</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador TP-Link Wi-Fi 6 AX1800 Smart WiFi Router (Archer AX20) - 802.11ax Roteador, Roteador Gigabit, Dual Band, OFDMA, Controle dos Pais, Cobertura de Longo Alcance, Funciona com Alexa
+Roteador Wireless TP-Link Archer C6, Dual Band, AC1200
 </t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55,78 </t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>10</v>
-      </c>
-      <c r="I151" t="inlineStr">
+          <t xml:space="preserve"> 31,96 </t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>9</v>
+      </c>
+      <c r="J151" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -6675,12 +7346,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-TP-Link-Archer-AX11000-Tri-Band/dp/B07WJX9HHG/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Huawei-Wifi-WS5800-Software/dp/B08KGXJ7DY/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ALFAINFOSHOP C/ NOTA NFe</t>
+          <t>MOCKIMPORTS</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -6693,25 +7364,30 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>B07WJX9HHG</t>
+          <t>B08KGXJ7DY</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador GAMER TP-Link Archer AX11000 Tri-Band Wi-Fi 6 Até 10GBPPS
+Roteador Huawei Wifi WS5800 Mesh + Software
 </t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 350,08 </t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>10</v>
-      </c>
-      <c r="I152" t="inlineStr">
+          <t xml:space="preserve"> 113,90 </t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>10</v>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -6720,12 +7396,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Desempenho-Huawei-Ws5200-Antenas/dp/B08KFM98BW/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/Roteador-Wi-Fi-Huawei-2-4-5-0/dp/B07D7MVKT2/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ESG Market</t>
+          <t>Octo.Shop BR</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -6738,25 +7414,30 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>B08KFM98BW</t>
+          <t>B07D7MVKT2</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wifi Alto Desempenho Gamer Huawei Ws5200 4 Antenas Anatel
+Roteador Wi-Fi Huawei 2.4/5.0 GHz - WS5200
 </t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,00 </t>
-        </is>
-      </c>
-      <c r="H153" t="n">
+          <t xml:space="preserve"> 30,49 </t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>9</v>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -6765,12 +7446,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Huawei-Wifi-WS5800-Software/dp/B08KGXJ7DY/ref=sr_1_4?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-4&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-WS7100-Dual-core-Huawei-Branco/dp/B097YMZMNB/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ALFAINFOSHOP C/ NOTA NFe</t>
+          <t>MOCKIMPORTS</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -6783,25 +7464,30 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>B08KGXJ7DY</t>
+          <t>B097YMZMNB</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Huawei Wifi WS5800 Mesh + Software
+Roteador Wifi AX3 WS7100 Dual-core Huawei Branco
 </t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95,80 </t>
-        </is>
-      </c>
-      <c r="H154" t="n">
-        <v>10</v>
-      </c>
-      <c r="I154" t="inlineStr">
+          <t xml:space="preserve"> 41,50 </t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>10</v>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -6810,12 +7496,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wi-Fi-Huawei-2-4-5-0/dp/B07D7MVKT2/ref=sr_1_5?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-5&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/ROTEADOR-HUAWEI-WIFI-DUAL-CORE/dp/B08L99FX23/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Octo.Shop BR</t>
+          <t>Thaun Shop</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -6828,25 +7514,30 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>B07D7MVKT2</t>
+          <t>B08L99FX23</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wi-Fi Huawei 2.4/5.0 GHz - WS5200
+ROTEADOR HUAWEI WIFI AX3 DUAL CORE
 </t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30,60 </t>
-        </is>
-      </c>
-      <c r="H155" t="n">
-        <v>9</v>
-      </c>
-      <c r="I155" t="inlineStr">
+          <t xml:space="preserve"> 45,44 </t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>10</v>
+      </c>
+      <c r="J155" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -6855,12 +7546,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wireless-TP-Link-Archer-AC1200/dp/B08GDC3534/ref=sr_1_10?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-10&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
+          <t>https://www.amazon.com.br/TP-Link-Deco-Sistema-WiFi-Embalagem/dp/B0797D6853/ref=sr_1_19?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-19&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>SUPREMO SHOP</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -6873,25 +7564,30 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>B08GDC3534</t>
+          <t>B0797D6853</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wireless TP-Link Archer C6, Dual Band, AC1200
+TP-Link Deco Sistema WiFi de malha (Deco M5) – Cobertura de casa inteira de até 3.800 m², substituição de roteador/extensor WiFi, controles parentais, home care, roaming sem costura, trabalho com Alexa, pacote com 2
 </t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31,72 </t>
-        </is>
-      </c>
-      <c r="H156" t="n">
-        <v>9</v>
-      </c>
-      <c r="I156" t="inlineStr">
+          <t xml:space="preserve"> 95,90 </t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>10</v>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -6900,12 +7596,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-EdgeRouter-Ubiquiti-Rj45-Poe/dp/B08GM8JL3H/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Asus-Dual-6000Mbps-Antenas/dp/B07HM6KJN8/ref=sr_1_20?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Gigantec</t>
+          <t>Triplenet Pricing INC</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -6918,25 +7614,30 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>B08GM8JL3H</t>
+          <t>B07HM6KJN8</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador EdgeRouter Ubiquiti 5P Rj45 Poe - ER-X
+Roteador Asus Dual Band, 6000Mbps, 4 Antenas - RT-AX88U
 </t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 64,57 </t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>10</v>
-      </c>
-      <c r="I157" t="inlineStr">
+          <t xml:space="preserve"> 327,37 </t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>10</v>
+      </c>
+      <c r="J157" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -6945,12 +7646,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wifi-Huawei-Ax3-quad-core/dp/B08L9B84K7/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Ax3000-Gigabit-Wi-fi-Router/dp/B07Z8833C7/ref=sr_1_21?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-21&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Gooplayer</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -6963,25 +7664,30 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>B08L9B84K7</t>
+          <t>B07Z8833C7</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wifi - Huawei Wifi Ax3 (quad-core)
+Roteador TP-Link Archer AX50 Wi-Fi 6 Dual Band Gigabit AX3000
 </t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55,70 </t>
-        </is>
-      </c>
-      <c r="H158" t="n">
-        <v>10</v>
-      </c>
-      <c r="I158" t="inlineStr">
+          <t xml:space="preserve"> 82,77 </t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -6990,12 +7696,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ROTEADOR-HUAWEI-WIFI-DUAL-CORE/dp/B08L99FX23/ref=sr_1_3?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-3&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Portas-Hg8546m-Caixa-Branca/dp/B07JMSLP7J/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MARIA.D.L.G LLC</t>
+          <t>REDE DE OFERTAS</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -7008,25 +7714,30 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>B08L99FX23</t>
+          <t>B07JMSLP7J</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ROTEADOR HUAWEI WIFI AX3 DUAL CORE
+Roteador Onu 4 Portas Wifi Hg8546m Caixa Branca - Huawei
 </t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44,98 </t>
-        </is>
-      </c>
-      <c r="H159" t="n">
-        <v>10</v>
-      </c>
-      <c r="I159" t="inlineStr">
+          <t xml:space="preserve"> 35,00 </t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>5</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7035,12 +7746,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Portas-Hg8546m-Caixa-Branca/dp/B07JMSLP7J/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.db68964d-7c0e-4bb2-a95c-e5cb9e32eb12</t>
+          <t>https://www.amazon.com.br/Roteador-TP-Link-Archer-AX73-Gigabit/dp/B08P94H63W/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>REDE DE OFERTAS</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -7053,25 +7764,30 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>B07JMSLP7J</t>
+          <t>B08P94H63W</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Onu 4 Portas Wifi Hg8546m Caixa Branca - Huawei
+Roteador TP-Link Archer AX73 Wi-Fi 6 Gigabit Dual Band AX5400
 </t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35,00 </t>
-        </is>
-      </c>
-      <c r="H160" t="n">
-        <v>5</v>
-      </c>
-      <c r="I160" t="inlineStr">
+          <t xml:space="preserve"> 101,61 </t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7080,12 +7796,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-WS7100-Dual-core-Huawei-Branco/dp/B097YMZMNB/ref=sr_1_7?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-7&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-NETGEAR-R6700-Nighthawk-AC1750/dp/B00R2AZLD2/ref=sr_1_22?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MOCKIMPORTS</t>
+          <t>Bench Ventures</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -7098,25 +7814,30 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>B097YMZMNB</t>
+          <t>B00R2AZLD2</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wifi AX3 WS7100 Dual-core Huawei Branco
+Roteador WiFi NETGEAR R6700 Nighthawk AC1750 - R6700
 </t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41,50 </t>
-        </is>
-      </c>
-      <c r="H161" t="n">
-        <v>10</v>
-      </c>
-      <c r="I161" t="inlineStr">
+          <t xml:space="preserve"> 116,60 </t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7125,12 +7846,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/TP-Link-Deco-Sistema-WiFi-Embalagem/dp/B0797D6853/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-17&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ROTEADOR-WIRELESS-MU-MIMO-ARCHER-C80/dp/B099GSQRZF/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SUPREMO SHOP</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -7143,25 +7864,30 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>B0797D6853</t>
+          <t>B099GSQRZF</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
           <t xml:space="preserve">
-TP-Link Deco Sistema WiFi de malha (Deco M5) – Cobertura de casa inteira de até 3.800 m², substituição de roteador/extensor WiFi, controles parentais, home care, roaming sem costura, trabalho com Alexa, pacote com 2
+ROTEADOR WIRELESS AC1900 MU-MIMO ARCHER C80 BR
 </t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 95,90 </t>
-        </is>
-      </c>
-      <c r="H162" t="n">
-        <v>10</v>
-      </c>
-      <c r="I162" t="inlineStr">
+          <t xml:space="preserve"> 49,05 </t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>10</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7170,12 +7896,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/HUAWEI-ROTEADOR-WS5200-WIFI-BRANCO/dp/B092K69PHJ/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-TP-Link-Archer-AX11000-Tri-Band/dp/B07WJX9HHG/ref=sr_1_17?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-17</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MPCEL</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -7188,25 +7914,26 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>B092K69PHJ</t>
+          <t>B07WJX9HHG</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
           <t xml:space="preserve">
-HUAWEI ROTEADOR WS5200 WIFI BRANCO OPEN
-</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 37,90 </t>
-        </is>
-      </c>
-      <c r="H163" t="n">
-        <v>10</v>
-      </c>
-      <c r="I163" t="inlineStr">
+Roteador GAMER TP-Link Archer AX11000 Tri-Band Wi-Fi 6 Até 10GBPPS
+</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7215,12 +7942,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Xiaomi-AX1800-Wireless-4xAntenas/dp/B08MQ7JDZT/ref=sr_1_12?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-12&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ROTEADOR-AX1500-ARCHER-AX10-TP-LINK/dp/B07YP3T5H7/ref=sr_1_8?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-8&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CAICHA BAZAR</t>
+          <t>Erro</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -7233,25 +7960,30 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>B08MQ7JDZT</t>
+          <t>B07YP3T5H7</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Xiaomi AX1800, 5 Core WiFi 6 Dual Band Wireless WiFi, Mesh OFDMA 1775MBps 4xAntenas 256MB - Branco
+Roteador TP-Link Archer AX10, Wi-Fi 6 Dual Band
 </t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37,60 </t>
-        </is>
-      </c>
-      <c r="H164" t="n">
-        <v>10</v>
-      </c>
-      <c r="I164" t="inlineStr">
+          <t xml:space="preserve"> 39,57 </t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>10</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7260,7 +7992,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-TP-Link-Archer-AX73-Gigabit/dp/B08P94H63W/ref=sr_1_11?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-11&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Wi-Fi-Nova-MW6-1200Mbps/dp/B078MZTRBS/ref=sr_1_23?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7278,25 +8010,30 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>B08P94H63W</t>
+          <t>B078MZTRBS</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador TP-Link Archer AX73 Wi-Fi 6 Gigabit Dual Band AX5400
+Roteador Wifi Mesh Giga com 2 MW6 TENDA
 </t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 103,61 </t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>10</v>
-      </c>
-      <c r="I165" t="inlineStr">
+          <t xml:space="preserve"> 64,90 </t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7305,12 +8042,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ROTEADOR-WIRELESS-MU-MIMO-ARCHER-C80/dp/B099GSQRZF/ref=sr_1_14?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-14&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Wifi-Huawei-Ax3-quad-core/dp/B08L9B84K7/ref=sr_1_1?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-1&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>Gooplayer</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -7323,25 +8060,30 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>B099GSQRZF</t>
+          <t>B08L9B84K7</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ROTEADOR WIRELESS AC1900 MU-MIMO ARCHER C80 BR
+Roteador Wifi - Huawei Wifi Ax3 (quad-core)
 </t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49,06 </t>
-        </is>
-      </c>
-      <c r="H166" t="n">
-        <v>10</v>
-      </c>
-      <c r="I166" t="inlineStr">
+          <t xml:space="preserve"> 55,70 </t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7350,12 +8092,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ROTEADOR-AX1500-ARCHER-AX10-TP-LINK/dp/B07YP3T5H7/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Xiaomi-AX1800-Wireless-4xAntenas/dp/B08MQ7JDZT/ref=sr_1_13?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-13&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Erro</t>
+          <t>CAICHA BAZAR</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -7368,25 +8110,30 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>B07YP3T5H7</t>
+          <t>B08MQ7JDZT</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador TP-Link Archer AX10, Wi-Fi 6 Dual Band
+Roteador Xiaomi AX1800, 5 Core WiFi 6 Dual Band Wireless WiFi, Mesh OFDMA 1775MBps 4xAntenas 256MB - Branco
 </t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,57 </t>
-        </is>
-      </c>
-      <c r="H167" t="n">
-        <v>10</v>
-      </c>
-      <c r="I167" t="inlineStr">
+          <t xml:space="preserve"> 37,60 </t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>10</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7395,7 +8142,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/TP-Link-TL-WA850RE-Extender-Ripetitore-Universale/dp/B00A0VCJPI/ref=sr_1_20?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-20&amp;ufe=app_do%3Aamzn1.fos.6121c6c4-c969-43ae-92f7-cc248fc6181d</t>
+          <t>https://www.amazon.com.br/TP-Link-TL-WA850RE-Extender-Ripetitore-Universale/dp/B00A0VCJPI/ref=sr_1_18?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-18&amp;ufe=app_do%3Aamzn1.fos.6a09f7ec-d911-4889-ad70-de8dd83c8a74</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7425,13 +8172,18 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39,98 </t>
-        </is>
-      </c>
-      <c r="H168" t="n">
-        <v>3</v>
-      </c>
-      <c r="I168" t="inlineStr">
+          <t xml:space="preserve"> 136,35 em até 4x de R$ 34,11 </t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>136</v>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7440,12 +8192,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Asus-Dual-6000Mbps-Antenas/dp/B07HM6KJN8/ref=sr_1_22?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-22&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-mercusys-wireless-gigabit-ac1200/dp/B07SP6P2MP/ref=sr_1_15?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-15&amp;ufe=app_do%3Aamzn1.fos.fcd6d665-32ba-4479-9f21-b774e276a678</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Triplenet Pricing INC</t>
+          <t>Reis Shop 24hs</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -7458,25 +8210,30 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>B07HM6KJN8</t>
+          <t>B07SP6P2MP</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Asus Dual Band, 6000Mbps, 4 Antenas - RT-AX88U
+Roteador Mercusys AC12G Wireless Gigabit Dual Band AC1200
 </t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 327,37 </t>
-        </is>
-      </c>
-      <c r="H169" t="n">
-        <v>10</v>
-      </c>
-      <c r="I169" t="inlineStr">
+          <t xml:space="preserve"> 30,70 </t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>6</v>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7485,12 +8242,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Huawei-WS7200-WiFi-Software/dp/B08KGYZ5HZ/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Desempenho-Huawei-Ws5200-Antenas/dp/B08KFM98BW/ref=sr_1_6?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-6&amp;ufe=app_do%3Aamzn1.fos.4bddec23-2dcf-4403-8597-e1a02442043d</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Thaun Shop</t>
+          <t>ESG Market</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -7503,25 +8260,30 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>B08KGYZ5HZ</t>
+          <t>B08KFM98BW</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Huawei WS7200 WiFi AX3 + Software
+Roteador Wifi Alto Desempenho Gamer Huawei Ws5200 4 Antenas Anatel
 </t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 64,05 </t>
-        </is>
-      </c>
-      <c r="H170" t="n">
-        <v>10</v>
-      </c>
-      <c r="I170" t="inlineStr">
+          <t xml:space="preserve"> 31,00 </t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>9</v>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7530,12 +8292,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-Wi-Fi-Nova-MW6-1200Mbps/dp/B078MZTRBS/ref=sr_1_25?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-25&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-Huawei-WS7200-WiFi-Software/dp/B08KGYZ5HZ/ref=sr_1_2?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-2&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>REX INFORMATICA</t>
+          <t>RNEZIO</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -7548,25 +8310,30 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>B078MZTRBS</t>
+          <t>B08KGYZ5HZ</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador Wifi Mesh Giga com 2 MW6 TENDA
+Roteador Huawei WS7200 WiFi AX3 + Software
 </t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58,97 </t>
-        </is>
-      </c>
-      <c r="H171" t="n">
-        <v>10</v>
-      </c>
-      <c r="I171" t="inlineStr">
+          <t xml:space="preserve"> 64,00 </t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>10</v>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
@@ -7575,12 +8342,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Roteador-NETGEAR-R6700-Nighthawk-AC1750/dp/B00R2AZLD2/ref=sr_1_23?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636497092&amp;s=electronics&amp;sr=1-23&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Roteador-EdgeRouter-Ubiquiti-Rj45-Poe/dp/B08GM8JL3H/ref=sr_1_16?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-16&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Bench Ventures</t>
+          <t>Gigantec</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -7593,25 +8360,130 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>B00R2AZLD2</t>
+          <t>B08GM8JL3H</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roteador WiFi NETGEAR R6700 Nighthawk AC1750 - R6700
+Roteador EdgeRouter Ubiquiti 5P Rj45 Poe - ER-X
 </t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 116,60 </t>
-        </is>
-      </c>
-      <c r="H172" t="n">
-        <v>10</v>
-      </c>
-      <c r="I172" t="inlineStr">
+          <t xml:space="preserve"> 64,57 </t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>10</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Huawei WS7200</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Roteador-TP-Link-AX1800-Archer-AX20/dp/B088H34DW9/ref=sr_1_24?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-24&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>MASTER10 ( NOTA FISCAL )</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>B088H34DW9</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Roteador TP-Link Wi-Fi 6 AX1800 Smart WiFi Router (Archer AX20) - 802.11ax Roteador, Roteador Gigabit, Dual Band, OFDMA, Controle dos Pais, Cobertura de Longo Alcance, Funciona com Alexa
+</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 60,95 </t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>10</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Huawei WS7200</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/HUAWEI-ROTEADOR-WS5200-WIFI-BRANCO/dp/B092K69PHJ/ref=sr_1_9?__mk_pt_BR=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;keywords=roteador+huawei+ax3+quad-core&amp;qid=1636678732&amp;s=electronics&amp;sr=1-9&amp;ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MPCEL</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>AMAZON</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>B092K69PHJ</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+HUAWEI ROTEADOR WS5200 WIFI BRANCO OPEN
+</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 37,90 </t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>10</v>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
           <t>Huawei WS7200</t>
         </is>
